--- a/src/test/resources/Run_Manager_Rental_Incident.xlsx
+++ b/src/test/resources/Run_Manager_Rental_Incident.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Finalized Run Managers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A235CE66-8986-466D-A1E7-E447BBBDAB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656983AB-3A98-4E69-BF8F-0E0EA9CB6EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="1085">
   <si>
     <t>P_Key</t>
   </si>
@@ -5615,56 +5615,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Verify fucntionality of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Select the parts of the beneficiary to be modified) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>checkboxes from</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Resend the request ( إعادة إرسال الطلب ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">popup
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Verify functionality of</t>
     </r>
     <r>
@@ -6915,157 +6865,550 @@
     <t>Module 3</t>
   </si>
   <si>
-    <t>WEB_TC_01</t>
-  </si>
-  <si>
-    <t>WEB_TC_02</t>
-  </si>
-  <si>
-    <t>WEB_TC_03</t>
-  </si>
-  <si>
-    <t>WEB_TC_04</t>
-  </si>
-  <si>
-    <t>WEB_TC_05</t>
-  </si>
-  <si>
-    <t>WEB_TC_06</t>
-  </si>
-  <si>
-    <t>WEB_TC_07</t>
-  </si>
-  <si>
-    <t>WEB_TC_08</t>
-  </si>
-  <si>
-    <t>WEB_TC_09</t>
-  </si>
-  <si>
-    <t>WEB_TC_10</t>
-  </si>
-  <si>
-    <t>WEB_TC_11</t>
-  </si>
-  <si>
-    <t>WEB_TC_12</t>
-  </si>
-  <si>
-    <t>WEB_TC_13</t>
-  </si>
-  <si>
-    <t>WEB_TC_14</t>
-  </si>
-  <si>
-    <t>WEB_TC_15</t>
-  </si>
-  <si>
-    <t>WEB_TC_16</t>
-  </si>
-  <si>
-    <t>WEB_TC_17</t>
-  </si>
-  <si>
-    <t>WEB_TC_18</t>
-  </si>
-  <si>
-    <t>WEB_TC_19</t>
-  </si>
-  <si>
-    <t>WEB_TC_20</t>
-  </si>
-  <si>
-    <t>WEB_TC_21</t>
-  </si>
-  <si>
-    <t>WEB_TC_22</t>
-  </si>
-  <si>
-    <t>WEB_TC_23</t>
-  </si>
-  <si>
-    <t>WEB_TC_24</t>
-  </si>
-  <si>
-    <t>WEB_TC_25</t>
-  </si>
-  <si>
-    <t>WEB_TC_26</t>
-  </si>
-  <si>
-    <t>WEB_TC_27</t>
-  </si>
-  <si>
-    <t>WEB_TC_28</t>
-  </si>
-  <si>
-    <t>WEB_TC_29</t>
-  </si>
-  <si>
-    <t>WEB_TC_30</t>
-  </si>
-  <si>
-    <t>WEB_TC_31</t>
-  </si>
-  <si>
-    <t>WEB_TC_32</t>
-  </si>
-  <si>
-    <t>WEB_TC_33</t>
-  </si>
-  <si>
-    <t>WEB_TC_34</t>
-  </si>
-  <si>
-    <t>WEB_TC_35</t>
-  </si>
-  <si>
-    <t>WEB_TC_36</t>
-  </si>
-  <si>
-    <t>WEB_TC_37</t>
-  </si>
-  <si>
-    <t>WEB_TC_38</t>
-  </si>
-  <si>
-    <t>WEB_TC_39</t>
-  </si>
-  <si>
     <t>AwqafResidentialSubleaseContractLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_40</t>
-  </si>
-  <si>
     <t>ApproveAwqafResidentialSubleaseByLesserLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_41</t>
-  </si>
-  <si>
     <t>ApproveAwqafResidentialSubleaseByTenantLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_42</t>
-  </si>
-  <si>
-    <t>WEB_TC_43</t>
-  </si>
-  <si>
-    <t>WEB_TC_44</t>
-  </si>
-  <si>
-    <t>WEB_TC_45</t>
-  </si>
-  <si>
-    <t>WEB_TC_46</t>
-  </si>
-  <si>
-    <t>WEB_TC_47</t>
-  </si>
-  <si>
-    <t>WEB_TC_48</t>
+    <t>Contracts_TC_01</t>
+  </si>
+  <si>
+    <t>Contracts_TC_02</t>
+  </si>
+  <si>
+    <t>Contracts_TC_03</t>
+  </si>
+  <si>
+    <t>Contracts_TC_04</t>
+  </si>
+  <si>
+    <t>Contracts_TC_05</t>
+  </si>
+  <si>
+    <t>Contracts_TC_06</t>
+  </si>
+  <si>
+    <t>Contracts_TC_07</t>
+  </si>
+  <si>
+    <t>Contracts_TC_08</t>
+  </si>
+  <si>
+    <t>Contracts_TC_09</t>
+  </si>
+  <si>
+    <t>Contracts_TC_10</t>
+  </si>
+  <si>
+    <t>Contracts_TC_11</t>
+  </si>
+  <si>
+    <t>Contracts_TC_12</t>
+  </si>
+  <si>
+    <t>Contracts_TC_13</t>
+  </si>
+  <si>
+    <t>Contracts_TC_14</t>
+  </si>
+  <si>
+    <t>Contracts_TC_15</t>
+  </si>
+  <si>
+    <t>Contracts_TC_16</t>
+  </si>
+  <si>
+    <t>Contracts_TC_17</t>
+  </si>
+  <si>
+    <t>Contracts_TC_18</t>
+  </si>
+  <si>
+    <t>Contracts_TC_19</t>
+  </si>
+  <si>
+    <t>Contracts_TC_20</t>
+  </si>
+  <si>
+    <t>Contracts_TC_21</t>
+  </si>
+  <si>
+    <t>Contracts_TC_22</t>
+  </si>
+  <si>
+    <t>Contracts_TC_23</t>
+  </si>
+  <si>
+    <t>Contracts_TC_24</t>
+  </si>
+  <si>
+    <t>Contracts_TC_25</t>
+  </si>
+  <si>
+    <t>Contracts_TC_26</t>
+  </si>
+  <si>
+    <t>Contracts_TC_27</t>
+  </si>
+  <si>
+    <t>Contracts_TC_28</t>
+  </si>
+  <si>
+    <t>Contracts_TC_29</t>
+  </si>
+  <si>
+    <t>Contracts_TC_30</t>
+  </si>
+  <si>
+    <t>Contracts_TC_31</t>
+  </si>
+  <si>
+    <t>Contracts_TC_32</t>
+  </si>
+  <si>
+    <t>Contracts_TC_33</t>
+  </si>
+  <si>
+    <t>Contracts_TC_34</t>
+  </si>
+  <si>
+    <t>Contracts_TC_35</t>
+  </si>
+  <si>
+    <t>Contracts_TC_36</t>
+  </si>
+  <si>
+    <t>Contracts_TC_37</t>
+  </si>
+  <si>
+    <t>Contracts_TC_38</t>
+  </si>
+  <si>
+    <t>Contracts_TC_39</t>
+  </si>
+  <si>
+    <t>Contracts_TC_40</t>
+  </si>
+  <si>
+    <t>Contracts_TC_41</t>
+  </si>
+  <si>
+    <t>Contracts_TC_42</t>
+  </si>
+  <si>
+    <t>Contracts_TC_43</t>
+  </si>
+  <si>
+    <t>Contracts_TC_44</t>
+  </si>
+  <si>
+    <t>Contracts_TC_45</t>
+  </si>
+  <si>
+    <t>Contracts_TC_46</t>
+  </si>
+  <si>
+    <t>Contracts_TC_47</t>
+  </si>
+  <si>
+    <t>Contracts_TC_48</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_01</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_02</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_03</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_04</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_05</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_06</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_07</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_08</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_09</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_10</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_11</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_12</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_13</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_14</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_15</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_16</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_17</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_18</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_19</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_20</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_21</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_22</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_23</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_24</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_25</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_26</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_27</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_28</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_29</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_30</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_31</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_32</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_33</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_34</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_35</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_36</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_37</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_38</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_39</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_40</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_41</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_42</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_43</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_44</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_45</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_46</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_47</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_48</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_49</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_50</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_51</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_52</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_53</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_54</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_55</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_56</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_57</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_58</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_59</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_60</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_61</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_62</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_63</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_64</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_65</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_66</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_67</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_68</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_69</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_70</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_71</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_72</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_73</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_74</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_75</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_76</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_77</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_78</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_79</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_80</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_81</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_82</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_83</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_84</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_85</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_86</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_87</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_88</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_89</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_90</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_91</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_92</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_93</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_94</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_95</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_96</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_97</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_98</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_99</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_100</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_101</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_102</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_103</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_104</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_105</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_106</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_107</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_108</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_109</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_110</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_111</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_112</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_113</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_114</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_115</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_116</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_117</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_118</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_119</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_120</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_121</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_122</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_123</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_124</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_125</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_126</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_127</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_128</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_129</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_130</t>
+  </si>
+  <si>
+    <t>RentalIncident_TC_131</t>
   </si>
 </sst>
 </file>
@@ -7665,22 +8008,7 @@
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBCE997"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -8220,11 +8548,11 @@
   <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="M186" sqref="M186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8235,7 +8563,7 @@
     <col min="4" max="4" width="73" style="2" customWidth="1"/>
     <col min="5" max="5" width="40.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.21875" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -8283,15 +8611,15 @@
         <v>11</v>
       </c>
       <c r="M1" s="54" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -8323,19 +8651,19 @@
         <v>57</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E3" s="47" t="s">
+        <v>740</v>
+      </c>
+      <c r="F3" s="47" t="s">
         <v>741</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>742</v>
-      </c>
       <c r="G3" s="47" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>246</v>
@@ -8365,16 +8693,16 @@
         <v>280</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>246</v>
@@ -8404,16 +8732,16 @@
         <v>281</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>246</v>
@@ -8440,19 +8768,19 @@
         <v>57</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="H6" s="38" t="s">
         <v>246</v>
@@ -8482,16 +8810,16 @@
         <v>280</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="H7" s="38" t="s">
         <v>246</v>
@@ -8521,16 +8849,16 @@
         <v>281</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H8" s="38" t="s">
         <v>246</v>
@@ -8554,22 +8882,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E9" s="47" t="s">
+        <v>805</v>
+      </c>
+      <c r="F9" s="47" t="s">
         <v>806</v>
       </c>
-      <c r="F9" s="47" t="s">
-        <v>807</v>
-      </c>
       <c r="G9" s="47" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>246</v>
@@ -8593,22 +8921,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>280</v>
       </c>
       <c r="D10" s="47" t="s">
+        <v>807</v>
+      </c>
+      <c r="E10" s="47" t="s">
         <v>808</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="F10" s="47" t="s">
         <v>809</v>
       </c>
-      <c r="F10" s="47" t="s">
-        <v>810</v>
-      </c>
       <c r="G10" s="47" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>246</v>
@@ -8632,22 +8960,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>281</v>
       </c>
       <c r="D11" s="47" t="s">
+        <v>810</v>
+      </c>
+      <c r="E11" s="47" t="s">
         <v>811</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="F11" s="47" t="s">
         <v>812</v>
       </c>
-      <c r="F11" s="47" t="s">
-        <v>813</v>
-      </c>
       <c r="G11" s="47" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>246</v>
@@ -8671,22 +8999,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>246</v>
@@ -8710,22 +9038,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>280</v>
       </c>
       <c r="D13" s="47" t="s">
+        <v>814</v>
+      </c>
+      <c r="E13" s="47" t="s">
         <v>815</v>
       </c>
-      <c r="E13" s="47" t="s">
-        <v>816</v>
-      </c>
       <c r="F13" s="47" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="H13" s="38" t="s">
         <v>246</v>
@@ -8749,22 +9077,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>281</v>
       </c>
       <c r="D14" s="47" t="s">
+        <v>816</v>
+      </c>
+      <c r="E14" s="47" t="s">
         <v>817</v>
       </c>
-      <c r="E14" s="47" t="s">
-        <v>818</v>
-      </c>
       <c r="F14" s="47" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>246</v>
@@ -8788,22 +9116,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E15" s="47" t="s">
+        <v>818</v>
+      </c>
+      <c r="F15" s="47" t="s">
         <v>819</v>
       </c>
-      <c r="F15" s="47" t="s">
-        <v>820</v>
-      </c>
       <c r="G15" s="47" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>246</v>
@@ -8827,22 +9155,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>280</v>
       </c>
       <c r="D16" s="47" t="s">
+        <v>820</v>
+      </c>
+      <c r="E16" s="47" t="s">
         <v>821</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="F16" s="47" t="s">
         <v>822</v>
       </c>
-      <c r="F16" s="47" t="s">
-        <v>823</v>
-      </c>
       <c r="G16" s="47" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H16" s="38" t="s">
         <v>246</v>
@@ -8866,22 +9194,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>281</v>
       </c>
       <c r="D17" s="47" t="s">
+        <v>823</v>
+      </c>
+      <c r="E17" s="47" t="s">
         <v>824</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="F17" s="47" t="s">
         <v>825</v>
       </c>
-      <c r="F17" s="47" t="s">
-        <v>826</v>
-      </c>
       <c r="G17" s="47" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H17" s="38" t="s">
         <v>246</v>
@@ -8905,22 +9233,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="H18" s="38" t="s">
         <v>246</v>
@@ -8944,22 +9272,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>280</v>
       </c>
       <c r="D19" s="47" t="s">
+        <v>827</v>
+      </c>
+      <c r="E19" s="47" t="s">
         <v>828</v>
       </c>
-      <c r="E19" s="47" t="s">
-        <v>829</v>
-      </c>
       <c r="F19" s="47" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>246</v>
@@ -8983,22 +9311,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>281</v>
       </c>
       <c r="D20" s="47" t="s">
+        <v>829</v>
+      </c>
+      <c r="E20" s="47" t="s">
         <v>830</v>
       </c>
-      <c r="E20" s="47" t="s">
-        <v>831</v>
-      </c>
       <c r="F20" s="47" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="H20" s="38" t="s">
         <v>246</v>
@@ -9022,22 +9350,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>246</v>
@@ -9061,22 +9389,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>280</v>
       </c>
       <c r="D22" s="47" t="s">
+        <v>832</v>
+      </c>
+      <c r="E22" s="47" t="s">
         <v>833</v>
       </c>
-      <c r="E22" s="47" t="s">
-        <v>834</v>
-      </c>
       <c r="F22" s="47" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="H22" s="38" t="s">
         <v>246</v>
@@ -9100,22 +9428,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>281</v>
       </c>
       <c r="D23" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="E23" s="47" t="s">
         <v>835</v>
       </c>
-      <c r="E23" s="47" t="s">
-        <v>836</v>
-      </c>
       <c r="F23" s="47" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>246</v>
@@ -9139,22 +9467,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>246</v>
@@ -9178,22 +9506,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>280</v>
       </c>
       <c r="D25" s="47" t="s">
+        <v>837</v>
+      </c>
+      <c r="E25" s="47" t="s">
         <v>838</v>
       </c>
-      <c r="E25" s="47" t="s">
-        <v>839</v>
-      </c>
       <c r="F25" s="47" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>246</v>
@@ -9217,22 +9545,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>281</v>
       </c>
       <c r="D26" s="47" t="s">
+        <v>839</v>
+      </c>
+      <c r="E26" s="47" t="s">
         <v>840</v>
       </c>
-      <c r="E26" s="47" t="s">
-        <v>841</v>
-      </c>
       <c r="F26" s="47" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>246</v>
@@ -9256,22 +9584,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E27" s="47" t="s">
+        <v>841</v>
+      </c>
+      <c r="F27" s="47" t="s">
         <v>842</v>
       </c>
-      <c r="F27" s="47" t="s">
-        <v>843</v>
-      </c>
       <c r="G27" s="47" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>246</v>
@@ -9295,22 +9623,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>280</v>
       </c>
       <c r="D28" s="47" t="s">
+        <v>843</v>
+      </c>
+      <c r="E28" s="47" t="s">
         <v>844</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="F28" s="47" t="s">
         <v>845</v>
       </c>
-      <c r="F28" s="47" t="s">
-        <v>846</v>
-      </c>
       <c r="G28" s="47" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>246</v>
@@ -9334,22 +9662,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>281</v>
       </c>
       <c r="D29" s="47" t="s">
+        <v>846</v>
+      </c>
+      <c r="E29" s="47" t="s">
         <v>847</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="F29" s="47" t="s">
         <v>848</v>
       </c>
-      <c r="F29" s="47" t="s">
-        <v>849</v>
-      </c>
       <c r="G29" s="47" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>246</v>
@@ -9373,22 +9701,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>246</v>
@@ -9412,22 +9740,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C31" s="47" t="s">
         <v>280</v>
       </c>
       <c r="D31" s="47" t="s">
+        <v>850</v>
+      </c>
+      <c r="E31" s="47" t="s">
         <v>851</v>
       </c>
-      <c r="E31" s="47" t="s">
-        <v>852</v>
-      </c>
       <c r="F31" s="47" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>246</v>
@@ -9451,22 +9779,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C32" s="47" t="s">
         <v>281</v>
       </c>
       <c r="D32" s="47" t="s">
+        <v>852</v>
+      </c>
+      <c r="E32" s="47" t="s">
         <v>853</v>
       </c>
-      <c r="E32" s="47" t="s">
-        <v>854</v>
-      </c>
       <c r="F32" s="47" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="H32" s="38" t="s">
         <v>246</v>
@@ -9490,22 +9818,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>246</v>
@@ -9529,22 +9857,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C34" s="47" t="s">
         <v>280</v>
       </c>
       <c r="D34" s="47" t="s">
+        <v>855</v>
+      </c>
+      <c r="E34" s="47" t="s">
         <v>856</v>
       </c>
-      <c r="E34" s="47" t="s">
-        <v>857</v>
-      </c>
       <c r="F34" s="47" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="H34" s="38" t="s">
         <v>246</v>
@@ -9568,22 +9896,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C35" s="47" t="s">
         <v>281</v>
       </c>
       <c r="D35" s="47" t="s">
+        <v>857</v>
+      </c>
+      <c r="E35" s="47" t="s">
         <v>858</v>
       </c>
-      <c r="E35" s="47" t="s">
-        <v>859</v>
-      </c>
       <c r="F35" s="47" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="H35" s="38" t="s">
         <v>246</v>
@@ -9607,22 +9935,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="H36" s="38" t="s">
         <v>246</v>
@@ -9646,22 +9974,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C37" s="47" t="s">
         <v>280</v>
       </c>
       <c r="D37" s="47" t="s">
+        <v>860</v>
+      </c>
+      <c r="E37" s="47" t="s">
         <v>861</v>
       </c>
-      <c r="E37" s="47" t="s">
-        <v>862</v>
-      </c>
       <c r="F37" s="47" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>246</v>
@@ -9685,22 +10013,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C38" s="47" t="s">
         <v>281</v>
       </c>
       <c r="D38" s="47" t="s">
+        <v>862</v>
+      </c>
+      <c r="E38" s="47" t="s">
         <v>863</v>
       </c>
-      <c r="E38" s="47" t="s">
-        <v>864</v>
-      </c>
       <c r="F38" s="47" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="H38" s="38" t="s">
         <v>246</v>
@@ -9724,22 +10052,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="H39" s="38" t="s">
         <v>246</v>
@@ -9763,22 +10091,22 @@
         <v>38</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C40" s="47" t="s">
         <v>280</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="H40" s="38" t="s">
         <v>246</v>
@@ -9802,22 +10130,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>281</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>246</v>
@@ -9841,22 +10169,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>943</v>
+        <v>903</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G42" s="47" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H42" s="38" t="s">
         <v>246</v>
@@ -9880,19 +10208,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>280</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>945</v>
+        <v>904</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G43" s="47" t="s">
         <v>946</v>
@@ -9919,22 +10247,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C44" s="47" t="s">
         <v>281</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E44" s="47" t="s">
+        <v>905</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>875</v>
+      </c>
+      <c r="G44" s="47" t="s">
         <v>947</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>876</v>
-      </c>
-      <c r="G44" s="47" t="s">
-        <v>948</v>
       </c>
       <c r="H44" s="38" t="s">
         <v>246</v>
@@ -9958,22 +10286,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E45" s="47" t="s">
+        <v>868</v>
+      </c>
+      <c r="F45" s="47" t="s">
         <v>869</v>
       </c>
-      <c r="F45" s="47" t="s">
-        <v>870</v>
-      </c>
       <c r="G45" s="47" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H45" s="38" t="s">
         <v>246</v>
@@ -9997,22 +10325,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C46" s="47" t="s">
         <v>280</v>
       </c>
       <c r="D46" s="47" t="s">
+        <v>870</v>
+      </c>
+      <c r="E46" s="47" t="s">
         <v>871</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="F46" s="47" t="s">
         <v>872</v>
       </c>
-      <c r="F46" s="47" t="s">
-        <v>873</v>
-      </c>
       <c r="G46" s="47" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H46" s="38" t="s">
         <v>246</v>
@@ -10036,22 +10364,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C47" s="47" t="s">
         <v>281</v>
       </c>
       <c r="D47" s="47" t="s">
+        <v>873</v>
+      </c>
+      <c r="E47" s="47" t="s">
         <v>874</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="F47" s="47" t="s">
         <v>875</v>
       </c>
-      <c r="F47" s="47" t="s">
-        <v>876</v>
-      </c>
       <c r="G47" s="47" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H47" s="38" t="s">
         <v>246</v>
@@ -10075,22 +10403,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G48" s="47" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H48" s="38" t="s">
         <v>246</v>
@@ -10114,22 +10442,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C49" s="47" t="s">
         <v>280</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G49" s="47" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>246</v>
@@ -10153,22 +10481,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C50" s="47" t="s">
         <v>281</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G50" s="47" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H50" s="38" t="s">
         <v>246</v>
@@ -10195,7 +10523,7 @@
         <v>364</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D51" s="50"/>
       <c r="E51" s="51" t="s">
@@ -10220,7 +10548,7 @@
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="46">
-        <v>545</v>
+        <v>49</v>
       </c>
       <c r="B52" s="40" t="s">
         <v>389</v>
@@ -10237,8 +10565,8 @@
       <c r="F52" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G52" s="57" t="s">
-        <v>390</v>
+      <c r="G52" s="47" t="s">
+        <v>954</v>
       </c>
       <c r="H52" s="38" t="s">
         <v>246</v>
@@ -10253,13 +10581,13 @@
         <v>1</v>
       </c>
       <c r="L52" s="75">
-        <v>545</v>
+        <v>49</v>
       </c>
       <c r="M52" s="38"/>
     </row>
     <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="46">
-        <v>546</v>
+        <v>50</v>
       </c>
       <c r="B53" s="40" t="s">
         <v>389</v>
@@ -10276,8 +10604,8 @@
       <c r="F53" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G53" s="57" t="s">
-        <v>393</v>
+      <c r="G53" s="47" t="s">
+        <v>955</v>
       </c>
       <c r="H53" s="38" t="s">
         <v>246</v>
@@ -10292,13 +10620,13 @@
         <v>1</v>
       </c>
       <c r="L53" s="75">
-        <v>546</v>
+        <v>50</v>
       </c>
       <c r="M53" s="38"/>
     </row>
     <row r="54" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="46">
-        <v>547</v>
+        <v>51</v>
       </c>
       <c r="B54" s="40" t="s">
         <v>389</v>
@@ -10315,8 +10643,8 @@
       <c r="F54" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G54" s="57" t="s">
-        <v>395</v>
+      <c r="G54" s="47" t="s">
+        <v>956</v>
       </c>
       <c r="H54" s="38" t="s">
         <v>246</v>
@@ -10331,13 +10659,13 @@
         <v>1</v>
       </c>
       <c r="L54" s="75">
-        <v>547</v>
+        <v>51</v>
       </c>
       <c r="M54" s="38"/>
     </row>
     <row r="55" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="46">
-        <v>548</v>
+        <v>52</v>
       </c>
       <c r="B55" s="40" t="s">
         <v>389</v>
@@ -10354,8 +10682,8 @@
       <c r="F55" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G55" s="57" t="s">
-        <v>397</v>
+      <c r="G55" s="47" t="s">
+        <v>957</v>
       </c>
       <c r="H55" s="38" t="s">
         <v>246</v>
@@ -10370,13 +10698,13 @@
         <v>1</v>
       </c>
       <c r="L55" s="75">
-        <v>548</v>
+        <v>52</v>
       </c>
       <c r="M55" s="38"/>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="46">
-        <v>549</v>
+        <v>53</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>389</v>
@@ -10393,8 +10721,8 @@
       <c r="F56" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G56" s="57" t="s">
-        <v>399</v>
+      <c r="G56" s="47" t="s">
+        <v>958</v>
       </c>
       <c r="H56" s="38" t="s">
         <v>246</v>
@@ -10409,13 +10737,13 @@
         <v>1</v>
       </c>
       <c r="L56" s="75">
-        <v>549</v>
+        <v>53</v>
       </c>
       <c r="M56" s="38"/>
     </row>
     <row r="57" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="46">
-        <v>550</v>
+        <v>54</v>
       </c>
       <c r="B57" s="40" t="s">
         <v>389</v>
@@ -10432,8 +10760,8 @@
       <c r="F57" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G57" s="57" t="s">
-        <v>401</v>
+      <c r="G57" s="47" t="s">
+        <v>959</v>
       </c>
       <c r="H57" s="38" t="s">
         <v>246</v>
@@ -10448,13 +10776,13 @@
         <v>1</v>
       </c>
       <c r="L57" s="75">
-        <v>550</v>
+        <v>54</v>
       </c>
       <c r="M57" s="38"/>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="46">
-        <v>551</v>
+        <v>55</v>
       </c>
       <c r="B58" s="40" t="s">
         <v>389</v>
@@ -10471,8 +10799,8 @@
       <c r="F58" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G58" s="57" t="s">
-        <v>403</v>
+      <c r="G58" s="47" t="s">
+        <v>960</v>
       </c>
       <c r="H58" s="38" t="s">
         <v>246</v>
@@ -10487,13 +10815,13 @@
         <v>1</v>
       </c>
       <c r="L58" s="75">
-        <v>551</v>
+        <v>55</v>
       </c>
       <c r="M58" s="38"/>
     </row>
     <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="46">
-        <v>552</v>
+        <v>56</v>
       </c>
       <c r="B59" s="40" t="s">
         <v>389</v>
@@ -10510,8 +10838,8 @@
       <c r="F59" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G59" s="57" t="s">
-        <v>405</v>
+      <c r="G59" s="47" t="s">
+        <v>961</v>
       </c>
       <c r="H59" s="38" t="s">
         <v>246</v>
@@ -10526,13 +10854,13 @@
         <v>1</v>
       </c>
       <c r="L59" s="75">
-        <v>552</v>
+        <v>56</v>
       </c>
       <c r="M59" s="38"/>
     </row>
     <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="46">
-        <v>553</v>
+        <v>57</v>
       </c>
       <c r="B60" s="40" t="s">
         <v>389</v>
@@ -10549,8 +10877,8 @@
       <c r="F60" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G60" s="57" t="s">
-        <v>407</v>
+      <c r="G60" s="47" t="s">
+        <v>962</v>
       </c>
       <c r="H60" s="38" t="s">
         <v>246</v>
@@ -10565,13 +10893,13 @@
         <v>1</v>
       </c>
       <c r="L60" s="75">
-        <v>553</v>
+        <v>57</v>
       </c>
       <c r="M60" s="38"/>
     </row>
     <row r="61" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="46">
-        <v>554</v>
+        <v>58</v>
       </c>
       <c r="B61" s="40" t="s">
         <v>389</v>
@@ -10588,8 +10916,8 @@
       <c r="F61" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G61" s="57" t="s">
-        <v>409</v>
+      <c r="G61" s="47" t="s">
+        <v>963</v>
       </c>
       <c r="H61" s="38" t="s">
         <v>246</v>
@@ -10604,13 +10932,13 @@
         <v>1</v>
       </c>
       <c r="L61" s="75">
-        <v>554</v>
+        <v>58</v>
       </c>
       <c r="M61" s="38"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="46">
-        <v>555</v>
+        <v>59</v>
       </c>
       <c r="B62" s="40" t="s">
         <v>389</v>
@@ -10627,8 +10955,8 @@
       <c r="F62" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G62" s="57" t="s">
-        <v>411</v>
+      <c r="G62" s="47" t="s">
+        <v>964</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>246</v>
@@ -10643,13 +10971,13 @@
         <v>1</v>
       </c>
       <c r="L62" s="75">
-        <v>555</v>
+        <v>59</v>
       </c>
       <c r="M62" s="38"/>
     </row>
     <row r="63" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="46">
-        <v>556</v>
+        <v>60</v>
       </c>
       <c r="B63" s="40" t="s">
         <v>389</v>
@@ -10666,8 +10994,8 @@
       <c r="F63" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="G63" s="59" t="s">
-        <v>413</v>
+      <c r="G63" s="47" t="s">
+        <v>965</v>
       </c>
       <c r="H63" s="38" t="s">
         <v>246</v>
@@ -10682,13 +11010,13 @@
         <v>1</v>
       </c>
       <c r="L63" s="75">
-        <v>556</v>
+        <v>60</v>
       </c>
       <c r="M63" s="38"/>
     </row>
     <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="46">
-        <v>557</v>
+        <v>61</v>
       </c>
       <c r="B64" s="40" t="s">
         <v>389</v>
@@ -10705,8 +11033,8 @@
       <c r="F64" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="G64" s="60" t="s">
-        <v>416</v>
+      <c r="G64" s="47" t="s">
+        <v>966</v>
       </c>
       <c r="H64" s="38" t="s">
         <v>246</v>
@@ -10721,13 +11049,13 @@
         <v>1</v>
       </c>
       <c r="L64" s="75">
-        <v>557</v>
+        <v>61</v>
       </c>
       <c r="M64" s="38"/>
     </row>
     <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="46">
-        <v>558</v>
+        <v>62</v>
       </c>
       <c r="B65" s="40" t="s">
         <v>389</v>
@@ -10744,8 +11072,8 @@
       <c r="F65" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="G65" s="60" t="s">
-        <v>418</v>
+      <c r="G65" s="47" t="s">
+        <v>967</v>
       </c>
       <c r="H65" s="38" t="s">
         <v>246</v>
@@ -10760,13 +11088,13 @@
         <v>1</v>
       </c>
       <c r="L65" s="75">
-        <v>558</v>
+        <v>62</v>
       </c>
       <c r="M65" s="38"/>
     </row>
     <row r="66" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="46">
-        <v>559</v>
+        <v>63</v>
       </c>
       <c r="B66" s="40" t="s">
         <v>389</v>
@@ -10783,8 +11111,8 @@
       <c r="F66" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="G66" s="55" t="s">
-        <v>420</v>
+      <c r="G66" s="47" t="s">
+        <v>968</v>
       </c>
       <c r="H66" s="38" t="s">
         <v>246</v>
@@ -10799,13 +11127,13 @@
         <v>1</v>
       </c>
       <c r="L66" s="75">
-        <v>559</v>
+        <v>63</v>
       </c>
       <c r="M66" s="38"/>
     </row>
     <row r="67" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="46">
-        <v>560</v>
+        <v>64</v>
       </c>
       <c r="B67" s="40" t="s">
         <v>389</v>
@@ -10822,8 +11150,8 @@
       <c r="F67" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="G67" s="57" t="s">
-        <v>422</v>
+      <c r="G67" s="47" t="s">
+        <v>969</v>
       </c>
       <c r="H67" s="38" t="s">
         <v>246</v>
@@ -10838,13 +11166,13 @@
         <v>1</v>
       </c>
       <c r="L67" s="75">
-        <v>560</v>
+        <v>64</v>
       </c>
       <c r="M67" s="38"/>
     </row>
     <row r="68" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="46">
-        <v>561</v>
+        <v>65</v>
       </c>
       <c r="B68" s="40" t="s">
         <v>389</v>
@@ -10861,8 +11189,8 @@
       <c r="F68" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="G68" s="57" t="s">
-        <v>424</v>
+      <c r="G68" s="47" t="s">
+        <v>970</v>
       </c>
       <c r="H68" s="38" t="s">
         <v>246</v>
@@ -10877,13 +11205,13 @@
         <v>1</v>
       </c>
       <c r="L68" s="75">
-        <v>561</v>
+        <v>65</v>
       </c>
       <c r="M68" s="38"/>
     </row>
     <row r="69" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="46">
-        <v>562</v>
+        <v>66</v>
       </c>
       <c r="B69" s="40" t="s">
         <v>389</v>
@@ -10900,8 +11228,8 @@
       <c r="F69" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="G69" s="57" t="s">
-        <v>426</v>
+      <c r="G69" s="47" t="s">
+        <v>971</v>
       </c>
       <c r="H69" s="38" t="s">
         <v>246</v>
@@ -10916,13 +11244,13 @@
         <v>1</v>
       </c>
       <c r="L69" s="75">
-        <v>562</v>
+        <v>66</v>
       </c>
       <c r="M69" s="38"/>
     </row>
     <row r="70" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="46">
-        <v>563</v>
+        <v>67</v>
       </c>
       <c r="B70" s="40" t="s">
         <v>389</v>
@@ -10939,8 +11267,8 @@
       <c r="F70" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="G70" s="57" t="s">
-        <v>428</v>
+      <c r="G70" s="47" t="s">
+        <v>972</v>
       </c>
       <c r="H70" s="38" t="s">
         <v>246</v>
@@ -10955,13 +11283,13 @@
         <v>1</v>
       </c>
       <c r="L70" s="75">
-        <v>563</v>
+        <v>67</v>
       </c>
       <c r="M70" s="38"/>
     </row>
     <row r="71" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="46">
-        <v>564</v>
+        <v>68</v>
       </c>
       <c r="B71" s="40" t="s">
         <v>389</v>
@@ -10978,8 +11306,8 @@
       <c r="F71" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="G71" s="57" t="s">
-        <v>430</v>
+      <c r="G71" s="47" t="s">
+        <v>973</v>
       </c>
       <c r="H71" s="38" t="s">
         <v>246</v>
@@ -10994,13 +11322,13 @@
         <v>1</v>
       </c>
       <c r="L71" s="75">
-        <v>564</v>
+        <v>68</v>
       </c>
       <c r="M71" s="38"/>
     </row>
     <row r="72" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="46">
-        <v>565</v>
+        <v>69</v>
       </c>
       <c r="B72" s="40" t="s">
         <v>389</v>
@@ -11017,8 +11345,8 @@
       <c r="F72" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="G72" s="57" t="s">
-        <v>432</v>
+      <c r="G72" s="47" t="s">
+        <v>974</v>
       </c>
       <c r="H72" s="38" t="s">
         <v>246</v>
@@ -11033,13 +11361,13 @@
         <v>1</v>
       </c>
       <c r="L72" s="75">
-        <v>565</v>
+        <v>69</v>
       </c>
       <c r="M72" s="38"/>
     </row>
     <row r="73" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="46">
-        <v>566</v>
+        <v>70</v>
       </c>
       <c r="B73" s="40" t="s">
         <v>389</v>
@@ -11056,8 +11384,8 @@
       <c r="F73" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="G73" s="57" t="s">
-        <v>434</v>
+      <c r="G73" s="47" t="s">
+        <v>975</v>
       </c>
       <c r="H73" s="38" t="s">
         <v>246</v>
@@ -11072,13 +11400,13 @@
         <v>1</v>
       </c>
       <c r="L73" s="75">
-        <v>566</v>
+        <v>70</v>
       </c>
       <c r="M73" s="38"/>
     </row>
     <row r="74" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="46">
-        <v>567</v>
+        <v>71</v>
       </c>
       <c r="B74" s="55" t="s">
         <v>365</v>
@@ -11095,8 +11423,8 @@
       <c r="F74" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G74" s="58" t="s">
-        <v>377</v>
+      <c r="G74" s="47" t="s">
+        <v>976</v>
       </c>
       <c r="H74" s="38" t="s">
         <v>246</v>
@@ -11111,13 +11439,13 @@
         <v>1</v>
       </c>
       <c r="L74" s="75">
-        <v>567</v>
+        <v>71</v>
       </c>
       <c r="M74" s="38"/>
     </row>
     <row r="75" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="46">
-        <v>568</v>
+        <v>72</v>
       </c>
       <c r="B75" s="55" t="s">
         <v>365</v>
@@ -11134,8 +11462,8 @@
       <c r="F75" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G75" s="58" t="s">
-        <v>378</v>
+      <c r="G75" s="47" t="s">
+        <v>977</v>
       </c>
       <c r="H75" s="38" t="s">
         <v>246</v>
@@ -11150,13 +11478,13 @@
         <v>1</v>
       </c>
       <c r="L75" s="75">
-        <v>568</v>
+        <v>72</v>
       </c>
       <c r="M75" s="38"/>
     </row>
     <row r="76" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="46">
-        <v>569</v>
+        <v>73</v>
       </c>
       <c r="B76" s="55" t="s">
         <v>365</v>
@@ -11173,8 +11501,8 @@
       <c r="F76" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G76" s="56" t="s">
-        <v>366</v>
+      <c r="G76" s="47" t="s">
+        <v>978</v>
       </c>
       <c r="H76" s="38" t="s">
         <v>246</v>
@@ -11189,13 +11517,13 @@
         <v>1</v>
       </c>
       <c r="L76" s="75">
-        <v>569</v>
+        <v>73</v>
       </c>
       <c r="M76" s="38"/>
     </row>
     <row r="77" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="46">
-        <v>570</v>
+        <v>74</v>
       </c>
       <c r="B77" s="55" t="s">
         <v>365</v>
@@ -11212,8 +11540,8 @@
       <c r="F77" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G77" s="57" t="s">
-        <v>367</v>
+      <c r="G77" s="47" t="s">
+        <v>979</v>
       </c>
       <c r="H77" s="38" t="s">
         <v>246</v>
@@ -11228,13 +11556,13 @@
         <v>1</v>
       </c>
       <c r="L77" s="75">
-        <v>570</v>
+        <v>74</v>
       </c>
       <c r="M77" s="38"/>
     </row>
     <row r="78" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="46">
-        <v>571</v>
+        <v>75</v>
       </c>
       <c r="B78" s="55" t="s">
         <v>365</v>
@@ -11251,8 +11579,8 @@
       <c r="F78" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G78" s="57" t="s">
-        <v>368</v>
+      <c r="G78" s="47" t="s">
+        <v>980</v>
       </c>
       <c r="H78" s="38" t="s">
         <v>246</v>
@@ -11267,13 +11595,13 @@
         <v>1</v>
       </c>
       <c r="L78" s="75">
-        <v>571</v>
+        <v>75</v>
       </c>
       <c r="M78" s="38"/>
     </row>
     <row r="79" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="46">
-        <v>572</v>
+        <v>76</v>
       </c>
       <c r="B79" s="55" t="s">
         <v>365</v>
@@ -11290,8 +11618,8 @@
       <c r="F79" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G79" s="56" t="s">
-        <v>369</v>
+      <c r="G79" s="47" t="s">
+        <v>981</v>
       </c>
       <c r="H79" s="38" t="s">
         <v>246</v>
@@ -11306,13 +11634,13 @@
         <v>1</v>
       </c>
       <c r="L79" s="75">
-        <v>572</v>
+        <v>76</v>
       </c>
       <c r="M79" s="38"/>
     </row>
     <row r="80" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="46">
-        <v>573</v>
+        <v>77</v>
       </c>
       <c r="B80" s="55" t="s">
         <v>365</v>
@@ -11329,8 +11657,8 @@
       <c r="F80" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G80" s="55" t="s">
-        <v>370</v>
+      <c r="G80" s="47" t="s">
+        <v>982</v>
       </c>
       <c r="H80" s="38" t="s">
         <v>246</v>
@@ -11345,13 +11673,13 @@
         <v>1</v>
       </c>
       <c r="L80" s="75">
-        <v>573</v>
+        <v>77</v>
       </c>
       <c r="M80" s="38"/>
     </row>
     <row r="81" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="46">
-        <v>574</v>
+        <v>78</v>
       </c>
       <c r="B81" s="55" t="s">
         <v>365</v>
@@ -11368,8 +11696,8 @@
       <c r="F81" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G81" s="55" t="s">
-        <v>371</v>
+      <c r="G81" s="47" t="s">
+        <v>983</v>
       </c>
       <c r="H81" s="38" t="s">
         <v>246</v>
@@ -11384,13 +11712,13 @@
         <v>1</v>
       </c>
       <c r="L81" s="75">
-        <v>574</v>
+        <v>78</v>
       </c>
       <c r="M81" s="38"/>
     </row>
     <row r="82" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="46">
-        <v>575</v>
+        <v>79</v>
       </c>
       <c r="B82" s="55" t="s">
         <v>365</v>
@@ -11407,8 +11735,8 @@
       <c r="F82" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G82" s="55" t="s">
-        <v>372</v>
+      <c r="G82" s="47" t="s">
+        <v>984</v>
       </c>
       <c r="H82" s="38" t="s">
         <v>246</v>
@@ -11423,13 +11751,13 @@
         <v>1</v>
       </c>
       <c r="L82" s="75">
-        <v>575</v>
+        <v>79</v>
       </c>
       <c r="M82" s="38"/>
     </row>
     <row r="83" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="46">
-        <v>576</v>
+        <v>80</v>
       </c>
       <c r="B83" s="55" t="s">
         <v>365</v>
@@ -11446,8 +11774,8 @@
       <c r="F83" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G83" s="55" t="s">
-        <v>373</v>
+      <c r="G83" s="47" t="s">
+        <v>985</v>
       </c>
       <c r="H83" s="38" t="s">
         <v>246</v>
@@ -11462,13 +11790,13 @@
         <v>1</v>
       </c>
       <c r="L83" s="75">
-        <v>576</v>
+        <v>80</v>
       </c>
       <c r="M83" s="38"/>
     </row>
     <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="46">
-        <v>577</v>
+        <v>81</v>
       </c>
       <c r="B84" s="55" t="s">
         <v>365</v>
@@ -11485,8 +11813,8 @@
       <c r="F84" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G84" s="55" t="s">
-        <v>374</v>
+      <c r="G84" s="47" t="s">
+        <v>986</v>
       </c>
       <c r="H84" s="38" t="s">
         <v>246</v>
@@ -11501,13 +11829,13 @@
         <v>1</v>
       </c>
       <c r="L84" s="75">
-        <v>577</v>
+        <v>81</v>
       </c>
       <c r="M84" s="38"/>
     </row>
     <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="46">
-        <v>578</v>
+        <v>82</v>
       </c>
       <c r="B85" s="55" t="s">
         <v>365</v>
@@ -11524,8 +11852,8 @@
       <c r="F85" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G85" s="55" t="s">
-        <v>448</v>
+      <c r="G85" s="47" t="s">
+        <v>987</v>
       </c>
       <c r="H85" s="38" t="s">
         <v>246</v>
@@ -11540,13 +11868,13 @@
         <v>1</v>
       </c>
       <c r="L85" s="75">
-        <v>578</v>
+        <v>82</v>
       </c>
       <c r="M85" s="38"/>
     </row>
     <row r="86" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="46">
-        <v>579</v>
+        <v>83</v>
       </c>
       <c r="B86" s="55" t="s">
         <v>365</v>
@@ -11563,8 +11891,8 @@
       <c r="F86" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G86" s="55" t="s">
-        <v>449</v>
+      <c r="G86" s="47" t="s">
+        <v>988</v>
       </c>
       <c r="H86" s="38" t="s">
         <v>246</v>
@@ -11579,13 +11907,13 @@
         <v>1</v>
       </c>
       <c r="L86" s="75">
-        <v>579</v>
+        <v>83</v>
       </c>
       <c r="M86" s="38"/>
     </row>
     <row r="87" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="46">
-        <v>580</v>
+        <v>84</v>
       </c>
       <c r="B87" s="55" t="s">
         <v>365</v>
@@ -11602,8 +11930,8 @@
       <c r="F87" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G87" s="55" t="s">
-        <v>450</v>
+      <c r="G87" s="47" t="s">
+        <v>989</v>
       </c>
       <c r="H87" s="38" t="s">
         <v>246</v>
@@ -11618,13 +11946,13 @@
         <v>1</v>
       </c>
       <c r="L87" s="75">
-        <v>580</v>
+        <v>84</v>
       </c>
       <c r="M87" s="38"/>
     </row>
     <row r="88" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="46">
-        <v>581</v>
+        <v>85</v>
       </c>
       <c r="B88" s="55" t="s">
         <v>365</v>
@@ -11641,8 +11969,8 @@
       <c r="F88" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G88" s="55" t="s">
-        <v>451</v>
+      <c r="G88" s="47" t="s">
+        <v>990</v>
       </c>
       <c r="H88" s="38" t="s">
         <v>246</v>
@@ -11657,13 +11985,13 @@
         <v>1</v>
       </c>
       <c r="L88" s="75">
-        <v>581</v>
+        <v>85</v>
       </c>
       <c r="M88" s="38"/>
     </row>
     <row r="89" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="46">
-        <v>582</v>
+        <v>86</v>
       </c>
       <c r="B89" s="55" t="s">
         <v>365</v>
@@ -11680,8 +12008,8 @@
       <c r="F89" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G89" s="57" t="s">
-        <v>452</v>
+      <c r="G89" s="47" t="s">
+        <v>991</v>
       </c>
       <c r="H89" s="38" t="s">
         <v>246</v>
@@ -11696,13 +12024,13 @@
         <v>1</v>
       </c>
       <c r="L89" s="75">
-        <v>582</v>
+        <v>86</v>
       </c>
       <c r="M89" s="38"/>
     </row>
     <row r="90" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="46">
-        <v>583</v>
+        <v>87</v>
       </c>
       <c r="B90" s="55" t="s">
         <v>365</v>
@@ -11719,8 +12047,8 @@
       <c r="F90" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G90" s="57" t="s">
-        <v>453</v>
+      <c r="G90" s="47" t="s">
+        <v>992</v>
       </c>
       <c r="H90" s="38" t="s">
         <v>246</v>
@@ -11735,13 +12063,13 @@
         <v>1</v>
       </c>
       <c r="L90" s="75">
-        <v>583</v>
+        <v>87</v>
       </c>
       <c r="M90" s="38"/>
     </row>
     <row r="91" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="46">
-        <v>584</v>
+        <v>88</v>
       </c>
       <c r="B91" s="55" t="s">
         <v>365</v>
@@ -11758,8 +12086,8 @@
       <c r="F91" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G91" s="57" t="s">
-        <v>454</v>
+      <c r="G91" s="47" t="s">
+        <v>993</v>
       </c>
       <c r="H91" s="38" t="s">
         <v>246</v>
@@ -11774,13 +12102,13 @@
         <v>1</v>
       </c>
       <c r="L91" s="75">
-        <v>584</v>
+        <v>88</v>
       </c>
       <c r="M91" s="38"/>
     </row>
     <row r="92" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="46">
-        <v>585</v>
+        <v>89</v>
       </c>
       <c r="B92" s="55" t="s">
         <v>365</v>
@@ -11797,8 +12125,8 @@
       <c r="F92" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G92" s="57" t="s">
-        <v>455</v>
+      <c r="G92" s="47" t="s">
+        <v>994</v>
       </c>
       <c r="H92" s="38" t="s">
         <v>246</v>
@@ -11813,13 +12141,13 @@
         <v>1</v>
       </c>
       <c r="L92" s="75">
-        <v>585</v>
+        <v>89</v>
       </c>
       <c r="M92" s="38"/>
     </row>
     <row r="93" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="46">
-        <v>586</v>
+        <v>90</v>
       </c>
       <c r="B93" s="55" t="s">
         <v>365</v>
@@ -11836,8 +12164,8 @@
       <c r="F93" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G93" s="57" t="s">
-        <v>456</v>
+      <c r="G93" s="47" t="s">
+        <v>995</v>
       </c>
       <c r="H93" s="38" t="s">
         <v>246</v>
@@ -11852,13 +12180,13 @@
         <v>1</v>
       </c>
       <c r="L93" s="75">
-        <v>586</v>
+        <v>90</v>
       </c>
       <c r="M93" s="38"/>
     </row>
     <row r="94" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="46">
-        <v>587</v>
+        <v>91</v>
       </c>
       <c r="B94" s="61" t="s">
         <v>470</v>
@@ -11875,8 +12203,8 @@
       <c r="F94" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G94" s="55" t="s">
-        <v>471</v>
+      <c r="G94" s="47" t="s">
+        <v>996</v>
       </c>
       <c r="H94" s="38" t="s">
         <v>246</v>
@@ -11891,13 +12219,13 @@
         <v>1</v>
       </c>
       <c r="L94" s="75">
-        <v>587</v>
+        <v>91</v>
       </c>
       <c r="M94" s="38"/>
     </row>
     <row r="95" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="46">
-        <v>588</v>
+        <v>92</v>
       </c>
       <c r="B95" s="61" t="s">
         <v>470</v>
@@ -11914,8 +12242,8 @@
       <c r="F95" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G95" s="55" t="s">
-        <v>472</v>
+      <c r="G95" s="47" t="s">
+        <v>997</v>
       </c>
       <c r="H95" s="38" t="s">
         <v>246</v>
@@ -11930,13 +12258,13 @@
         <v>1</v>
       </c>
       <c r="L95" s="75">
-        <v>588</v>
+        <v>92</v>
       </c>
       <c r="M95" s="38"/>
     </row>
     <row r="96" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="46">
-        <v>589</v>
+        <v>93</v>
       </c>
       <c r="B96" s="61" t="s">
         <v>470</v>
@@ -11953,8 +12281,8 @@
       <c r="F96" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G96" s="55" t="s">
-        <v>473</v>
+      <c r="G96" s="47" t="s">
+        <v>998</v>
       </c>
       <c r="H96" s="38" t="s">
         <v>246</v>
@@ -11969,13 +12297,13 @@
         <v>1</v>
       </c>
       <c r="L96" s="75">
-        <v>589</v>
+        <v>93</v>
       </c>
       <c r="M96" s="38"/>
     </row>
     <row r="97" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="46">
-        <v>590</v>
+        <v>94</v>
       </c>
       <c r="B97" s="61" t="s">
         <v>470</v>
@@ -11992,8 +12320,8 @@
       <c r="F97" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G97" s="55" t="s">
-        <v>474</v>
+      <c r="G97" s="47" t="s">
+        <v>999</v>
       </c>
       <c r="H97" s="38" t="s">
         <v>246</v>
@@ -12008,13 +12336,13 @@
         <v>1</v>
       </c>
       <c r="L97" s="75">
-        <v>590</v>
+        <v>94</v>
       </c>
       <c r="M97" s="38"/>
     </row>
     <row r="98" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="46">
-        <v>591</v>
+        <v>95</v>
       </c>
       <c r="B98" s="61" t="s">
         <v>470</v>
@@ -12031,8 +12359,8 @@
       <c r="F98" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G98" s="55" t="s">
-        <v>475</v>
+      <c r="G98" s="47" t="s">
+        <v>1000</v>
       </c>
       <c r="H98" s="38" t="s">
         <v>246</v>
@@ -12047,13 +12375,13 @@
         <v>1</v>
       </c>
       <c r="L98" s="75">
-        <v>591</v>
+        <v>95</v>
       </c>
       <c r="M98" s="38"/>
     </row>
     <row r="99" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="46">
-        <v>592</v>
+        <v>96</v>
       </c>
       <c r="B99" s="61" t="s">
         <v>470</v>
@@ -12070,8 +12398,8 @@
       <c r="F99" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G99" s="55" t="s">
-        <v>476</v>
+      <c r="G99" s="47" t="s">
+        <v>1001</v>
       </c>
       <c r="H99" s="38" t="s">
         <v>246</v>
@@ -12086,13 +12414,13 @@
         <v>1</v>
       </c>
       <c r="L99" s="75">
-        <v>592</v>
+        <v>96</v>
       </c>
       <c r="M99" s="38"/>
     </row>
     <row r="100" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="46">
-        <v>593</v>
+        <v>97</v>
       </c>
       <c r="B100" s="61" t="s">
         <v>470</v>
@@ -12109,8 +12437,8 @@
       <c r="F100" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G100" s="55" t="s">
-        <v>477</v>
+      <c r="G100" s="47" t="s">
+        <v>1002</v>
       </c>
       <c r="H100" s="38" t="s">
         <v>246</v>
@@ -12125,13 +12453,13 @@
         <v>1</v>
       </c>
       <c r="L100" s="75">
-        <v>593</v>
+        <v>97</v>
       </c>
       <c r="M100" s="38"/>
     </row>
     <row r="101" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="46">
-        <v>594</v>
+        <v>98</v>
       </c>
       <c r="B101" s="61" t="s">
         <v>470</v>
@@ -12148,8 +12476,8 @@
       <c r="F101" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G101" s="55" t="s">
-        <v>478</v>
+      <c r="G101" s="47" t="s">
+        <v>1003</v>
       </c>
       <c r="H101" s="38" t="s">
         <v>246</v>
@@ -12164,13 +12492,13 @@
         <v>1</v>
       </c>
       <c r="L101" s="75">
-        <v>594</v>
+        <v>98</v>
       </c>
       <c r="M101" s="38"/>
     </row>
     <row r="102" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="46">
-        <v>595</v>
+        <v>99</v>
       </c>
       <c r="B102" s="61" t="s">
         <v>470</v>
@@ -12187,8 +12515,8 @@
       <c r="F102" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G102" s="55" t="s">
-        <v>479</v>
+      <c r="G102" s="47" t="s">
+        <v>1004</v>
       </c>
       <c r="H102" s="38" t="s">
         <v>246</v>
@@ -12203,13 +12531,13 @@
         <v>1</v>
       </c>
       <c r="L102" s="75">
-        <v>595</v>
+        <v>99</v>
       </c>
       <c r="M102" s="38"/>
     </row>
     <row r="103" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="46">
-        <v>596</v>
+        <v>100</v>
       </c>
       <c r="B103" s="40" t="s">
         <v>530</v>
@@ -12226,8 +12554,8 @@
       <c r="F103" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G103" s="55" t="s">
-        <v>531</v>
+      <c r="G103" s="47" t="s">
+        <v>1005</v>
       </c>
       <c r="H103" s="38" t="s">
         <v>246</v>
@@ -12242,13 +12570,13 @@
         <v>1</v>
       </c>
       <c r="L103" s="75">
-        <v>596</v>
+        <v>100</v>
       </c>
       <c r="M103" s="38"/>
     </row>
     <row r="104" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="46">
-        <v>597</v>
+        <v>101</v>
       </c>
       <c r="B104" s="40" t="s">
         <v>530</v>
@@ -12265,8 +12593,8 @@
       <c r="F104" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G104" s="55" t="s">
-        <v>533</v>
+      <c r="G104" s="47" t="s">
+        <v>1006</v>
       </c>
       <c r="H104" s="38" t="s">
         <v>246</v>
@@ -12281,13 +12609,13 @@
         <v>1</v>
       </c>
       <c r="L104" s="75">
-        <v>597</v>
+        <v>101</v>
       </c>
       <c r="M104" s="38"/>
     </row>
     <row r="105" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="46">
-        <v>598</v>
+        <v>102</v>
       </c>
       <c r="B105" s="40" t="s">
         <v>530</v>
@@ -12304,8 +12632,8 @@
       <c r="F105" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G105" s="55" t="s">
-        <v>535</v>
+      <c r="G105" s="47" t="s">
+        <v>1007</v>
       </c>
       <c r="H105" s="38" t="s">
         <v>246</v>
@@ -12320,13 +12648,13 @@
         <v>1</v>
       </c>
       <c r="L105" s="75">
-        <v>598</v>
+        <v>102</v>
       </c>
       <c r="M105" s="38"/>
     </row>
     <row r="106" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="46">
-        <v>599</v>
+        <v>103</v>
       </c>
       <c r="B106" s="40" t="s">
         <v>530</v>
@@ -12343,8 +12671,8 @@
       <c r="F106" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G106" s="55" t="s">
-        <v>537</v>
+      <c r="G106" s="47" t="s">
+        <v>1008</v>
       </c>
       <c r="H106" s="38" t="s">
         <v>246</v>
@@ -12359,13 +12687,13 @@
         <v>1</v>
       </c>
       <c r="L106" s="75">
-        <v>599</v>
+        <v>103</v>
       </c>
       <c r="M106" s="38"/>
     </row>
     <row r="107" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="46">
-        <v>600</v>
+        <v>104</v>
       </c>
       <c r="B107" s="40" t="s">
         <v>530</v>
@@ -12382,8 +12710,8 @@
       <c r="F107" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G107" s="63" t="s">
-        <v>539</v>
+      <c r="G107" s="47" t="s">
+        <v>1009</v>
       </c>
       <c r="H107" s="38" t="s">
         <v>246</v>
@@ -12398,13 +12726,13 @@
         <v>1</v>
       </c>
       <c r="L107" s="75">
-        <v>600</v>
+        <v>104</v>
       </c>
       <c r="M107" s="38"/>
     </row>
     <row r="108" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="46">
-        <v>601</v>
+        <v>105</v>
       </c>
       <c r="B108" s="40" t="s">
         <v>530</v>
@@ -12421,8 +12749,8 @@
       <c r="F108" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G108" s="63" t="s">
-        <v>541</v>
+      <c r="G108" s="47" t="s">
+        <v>1010</v>
       </c>
       <c r="H108" s="38" t="s">
         <v>246</v>
@@ -12437,13 +12765,13 @@
         <v>1</v>
       </c>
       <c r="L108" s="75">
-        <v>601</v>
+        <v>105</v>
       </c>
       <c r="M108" s="38"/>
     </row>
     <row r="109" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="46">
-        <v>602</v>
+        <v>106</v>
       </c>
       <c r="B109" s="40" t="s">
         <v>530</v>
@@ -12460,8 +12788,8 @@
       <c r="F109" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G109" s="63" t="s">
-        <v>543</v>
+      <c r="G109" s="47" t="s">
+        <v>1011</v>
       </c>
       <c r="H109" s="38" t="s">
         <v>246</v>
@@ -12476,13 +12804,13 @@
         <v>1</v>
       </c>
       <c r="L109" s="75">
-        <v>602</v>
+        <v>106</v>
       </c>
       <c r="M109" s="38"/>
     </row>
     <row r="110" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="46">
-        <v>603</v>
+        <v>107</v>
       </c>
       <c r="B110" s="40" t="s">
         <v>530</v>
@@ -12499,8 +12827,8 @@
       <c r="F110" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G110" s="63" t="s">
-        <v>545</v>
+      <c r="G110" s="47" t="s">
+        <v>1012</v>
       </c>
       <c r="H110" s="38" t="s">
         <v>246</v>
@@ -12515,13 +12843,13 @@
         <v>1</v>
       </c>
       <c r="L110" s="75">
-        <v>603</v>
+        <v>107</v>
       </c>
       <c r="M110" s="38"/>
     </row>
     <row r="111" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="46">
-        <v>604</v>
+        <v>108</v>
       </c>
       <c r="B111" s="40" t="s">
         <v>530</v>
@@ -12538,8 +12866,8 @@
       <c r="F111" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G111" s="63" t="s">
-        <v>547</v>
+      <c r="G111" s="47" t="s">
+        <v>1013</v>
       </c>
       <c r="H111" s="38" t="s">
         <v>246</v>
@@ -12554,13 +12882,13 @@
         <v>1</v>
       </c>
       <c r="L111" s="75">
-        <v>604</v>
+        <v>108</v>
       </c>
       <c r="M111" s="38"/>
     </row>
     <row r="112" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="46">
-        <v>605</v>
+        <v>109</v>
       </c>
       <c r="B112" s="40" t="s">
         <v>530</v>
@@ -12577,8 +12905,8 @@
       <c r="F112" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G112" s="55" t="s">
-        <v>549</v>
+      <c r="G112" s="47" t="s">
+        <v>1014</v>
       </c>
       <c r="H112" s="38" t="s">
         <v>246</v>
@@ -12593,13 +12921,13 @@
         <v>1</v>
       </c>
       <c r="L112" s="75">
-        <v>605</v>
+        <v>109</v>
       </c>
       <c r="M112" s="38"/>
     </row>
     <row r="113" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="46">
-        <v>606</v>
+        <v>110</v>
       </c>
       <c r="B113" s="40" t="s">
         <v>530</v>
@@ -12616,8 +12944,8 @@
       <c r="F113" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G113" s="55" t="s">
-        <v>551</v>
+      <c r="G113" s="47" t="s">
+        <v>1015</v>
       </c>
       <c r="H113" s="38" t="s">
         <v>246</v>
@@ -12632,13 +12960,13 @@
         <v>1</v>
       </c>
       <c r="L113" s="75">
-        <v>606</v>
+        <v>110</v>
       </c>
       <c r="M113" s="38"/>
     </row>
     <row r="114" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="46">
-        <v>607</v>
+        <v>111</v>
       </c>
       <c r="B114" s="40" t="s">
         <v>530</v>
@@ -12655,8 +12983,8 @@
       <c r="F114" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G114" s="55" t="s">
-        <v>553</v>
+      <c r="G114" s="47" t="s">
+        <v>1016</v>
       </c>
       <c r="H114" s="38" t="s">
         <v>246</v>
@@ -12671,13 +12999,13 @@
         <v>1</v>
       </c>
       <c r="L114" s="75">
-        <v>607</v>
+        <v>111</v>
       </c>
       <c r="M114" s="38"/>
     </row>
     <row r="115" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="46">
-        <v>608</v>
+        <v>112</v>
       </c>
       <c r="B115" s="40" t="s">
         <v>530</v>
@@ -12694,8 +13022,8 @@
       <c r="F115" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G115" s="55" t="s">
-        <v>555</v>
+      <c r="G115" s="47" t="s">
+        <v>1017</v>
       </c>
       <c r="H115" s="38" t="s">
         <v>246</v>
@@ -12710,13 +13038,13 @@
         <v>1</v>
       </c>
       <c r="L115" s="75">
-        <v>608</v>
+        <v>112</v>
       </c>
       <c r="M115" s="38"/>
     </row>
     <row r="116" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="46">
-        <v>609</v>
+        <v>113</v>
       </c>
       <c r="B116" s="40" t="s">
         <v>530</v>
@@ -12733,8 +13061,8 @@
       <c r="F116" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G116" s="55" t="s">
-        <v>557</v>
+      <c r="G116" s="47" t="s">
+        <v>1018</v>
       </c>
       <c r="H116" s="38" t="s">
         <v>246</v>
@@ -12749,13 +13077,13 @@
         <v>1</v>
       </c>
       <c r="L116" s="75">
-        <v>609</v>
+        <v>113</v>
       </c>
       <c r="M116" s="38"/>
     </row>
     <row r="117" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="46">
-        <v>610</v>
+        <v>114</v>
       </c>
       <c r="B117" s="40" t="s">
         <v>530</v>
@@ -12772,8 +13100,8 @@
       <c r="F117" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G117" s="55" t="s">
-        <v>559</v>
+      <c r="G117" s="47" t="s">
+        <v>1019</v>
       </c>
       <c r="H117" s="38" t="s">
         <v>246</v>
@@ -12788,13 +13116,13 @@
         <v>1</v>
       </c>
       <c r="L117" s="75">
-        <v>610</v>
+        <v>114</v>
       </c>
       <c r="M117" s="38"/>
     </row>
     <row r="118" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="46">
-        <v>611</v>
+        <v>115</v>
       </c>
       <c r="B118" s="40" t="s">
         <v>530</v>
@@ -12811,8 +13139,8 @@
       <c r="F118" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G118" s="55" t="s">
-        <v>561</v>
+      <c r="G118" s="47" t="s">
+        <v>1020</v>
       </c>
       <c r="H118" s="38" t="s">
         <v>246</v>
@@ -12827,13 +13155,13 @@
         <v>1</v>
       </c>
       <c r="L118" s="75">
-        <v>611</v>
+        <v>115</v>
       </c>
       <c r="M118" s="38"/>
     </row>
     <row r="119" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="46">
-        <v>612</v>
+        <v>116</v>
       </c>
       <c r="B119" s="40" t="s">
         <v>530</v>
@@ -12850,8 +13178,8 @@
       <c r="F119" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G119" s="55" t="s">
-        <v>563</v>
+      <c r="G119" s="47" t="s">
+        <v>1021</v>
       </c>
       <c r="H119" s="38" t="s">
         <v>246</v>
@@ -12866,13 +13194,13 @@
         <v>1</v>
       </c>
       <c r="L119" s="75">
-        <v>612</v>
+        <v>116</v>
       </c>
       <c r="M119" s="38"/>
     </row>
     <row r="120" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="46">
-        <v>613</v>
+        <v>117</v>
       </c>
       <c r="B120" s="40" t="s">
         <v>530</v>
@@ -12889,8 +13217,8 @@
       <c r="F120" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G120" s="55" t="s">
-        <v>565</v>
+      <c r="G120" s="47" t="s">
+        <v>1022</v>
       </c>
       <c r="H120" s="38" t="s">
         <v>246</v>
@@ -12905,13 +13233,13 @@
         <v>1</v>
       </c>
       <c r="L120" s="75">
-        <v>613</v>
+        <v>117</v>
       </c>
       <c r="M120" s="38"/>
     </row>
     <row r="121" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="46">
-        <v>614</v>
+        <v>118</v>
       </c>
       <c r="B121" s="40" t="s">
         <v>530</v>
@@ -12928,8 +13256,8 @@
       <c r="F121" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G121" s="55" t="s">
-        <v>567</v>
+      <c r="G121" s="47" t="s">
+        <v>1023</v>
       </c>
       <c r="H121" s="38" t="s">
         <v>246</v>
@@ -12944,13 +13272,13 @@
         <v>1</v>
       </c>
       <c r="L121" s="75">
-        <v>614</v>
+        <v>118</v>
       </c>
       <c r="M121" s="38"/>
     </row>
     <row r="122" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="46">
-        <v>615</v>
+        <v>119</v>
       </c>
       <c r="B122" s="40" t="s">
         <v>530</v>
@@ -12967,8 +13295,8 @@
       <c r="F122" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G122" s="55" t="s">
-        <v>569</v>
+      <c r="G122" s="47" t="s">
+        <v>1024</v>
       </c>
       <c r="H122" s="38" t="s">
         <v>246</v>
@@ -12983,13 +13311,13 @@
         <v>1</v>
       </c>
       <c r="L122" s="75">
-        <v>615</v>
+        <v>119</v>
       </c>
       <c r="M122" s="38"/>
     </row>
     <row r="123" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="46">
-        <v>616</v>
+        <v>120</v>
       </c>
       <c r="B123" s="40" t="s">
         <v>530</v>
@@ -13006,8 +13334,8 @@
       <c r="F123" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G123" s="55" t="s">
-        <v>571</v>
+      <c r="G123" s="47" t="s">
+        <v>1025</v>
       </c>
       <c r="H123" s="38" t="s">
         <v>246</v>
@@ -13022,13 +13350,13 @@
         <v>1</v>
       </c>
       <c r="L123" s="75">
-        <v>616</v>
+        <v>120</v>
       </c>
       <c r="M123" s="38"/>
     </row>
     <row r="124" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="46">
-        <v>617</v>
+        <v>121</v>
       </c>
       <c r="B124" s="40" t="s">
         <v>530</v>
@@ -13045,8 +13373,8 @@
       <c r="F124" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G124" s="55" t="s">
-        <v>573</v>
+      <c r="G124" s="47" t="s">
+        <v>1026</v>
       </c>
       <c r="H124" s="38" t="s">
         <v>246</v>
@@ -13061,13 +13389,13 @@
         <v>1</v>
       </c>
       <c r="L124" s="75">
-        <v>617</v>
+        <v>121</v>
       </c>
       <c r="M124" s="38"/>
     </row>
     <row r="125" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="46">
-        <v>618</v>
+        <v>122</v>
       </c>
       <c r="B125" s="61" t="s">
         <v>491</v>
@@ -13084,8 +13412,8 @@
       <c r="F125" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G125" s="55" t="s">
-        <v>492</v>
+      <c r="G125" s="47" t="s">
+        <v>1027</v>
       </c>
       <c r="H125" s="38" t="s">
         <v>246</v>
@@ -13100,13 +13428,13 @@
         <v>1</v>
       </c>
       <c r="L125" s="75">
-        <v>618</v>
+        <v>122</v>
       </c>
       <c r="M125" s="38"/>
     </row>
     <row r="126" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="46">
-        <v>619</v>
+        <v>123</v>
       </c>
       <c r="B126" s="61" t="s">
         <v>491</v>
@@ -13123,8 +13451,8 @@
       <c r="F126" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G126" s="55" t="s">
-        <v>493</v>
+      <c r="G126" s="47" t="s">
+        <v>1028</v>
       </c>
       <c r="H126" s="38" t="s">
         <v>246</v>
@@ -13139,13 +13467,13 @@
         <v>1</v>
       </c>
       <c r="L126" s="75">
-        <v>619</v>
+        <v>123</v>
       </c>
       <c r="M126" s="38"/>
     </row>
     <row r="127" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="46">
-        <v>620</v>
+        <v>124</v>
       </c>
       <c r="B127" s="61" t="s">
         <v>491</v>
@@ -13162,8 +13490,8 @@
       <c r="F127" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G127" s="55" t="s">
-        <v>494</v>
+      <c r="G127" s="47" t="s">
+        <v>1029</v>
       </c>
       <c r="H127" s="38" t="s">
         <v>246</v>
@@ -13178,13 +13506,13 @@
         <v>1</v>
       </c>
       <c r="L127" s="75">
-        <v>620</v>
+        <v>124</v>
       </c>
       <c r="M127" s="38"/>
     </row>
     <row r="128" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="46">
-        <v>621</v>
+        <v>125</v>
       </c>
       <c r="B128" s="61" t="s">
         <v>491</v>
@@ -13201,8 +13529,8 @@
       <c r="F128" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G128" s="55" t="s">
-        <v>495</v>
+      <c r="G128" s="47" t="s">
+        <v>1030</v>
       </c>
       <c r="H128" s="38" t="s">
         <v>246</v>
@@ -13217,13 +13545,13 @@
         <v>1</v>
       </c>
       <c r="L128" s="75">
-        <v>621</v>
+        <v>125</v>
       </c>
       <c r="M128" s="38"/>
     </row>
     <row r="129" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="46">
-        <v>622</v>
+        <v>126</v>
       </c>
       <c r="B129" s="61" t="s">
         <v>491</v>
@@ -13240,8 +13568,8 @@
       <c r="F129" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G129" s="55" t="s">
-        <v>496</v>
+      <c r="G129" s="47" t="s">
+        <v>1031</v>
       </c>
       <c r="H129" s="38" t="s">
         <v>246</v>
@@ -13256,13 +13584,13 @@
         <v>1</v>
       </c>
       <c r="L129" s="75">
-        <v>622</v>
+        <v>126</v>
       </c>
       <c r="M129" s="38"/>
     </row>
     <row r="130" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="46">
-        <v>623</v>
+        <v>127</v>
       </c>
       <c r="B130" s="61" t="s">
         <v>491</v>
@@ -13279,8 +13607,8 @@
       <c r="F130" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G130" s="55" t="s">
-        <v>497</v>
+      <c r="G130" s="47" t="s">
+        <v>1032</v>
       </c>
       <c r="H130" s="38" t="s">
         <v>246</v>
@@ -13295,13 +13623,13 @@
         <v>1</v>
       </c>
       <c r="L130" s="75">
-        <v>623</v>
+        <v>127</v>
       </c>
       <c r="M130" s="38"/>
     </row>
     <row r="131" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="46">
-        <v>624</v>
+        <v>128</v>
       </c>
       <c r="B131" s="61" t="s">
         <v>491</v>
@@ -13318,8 +13646,8 @@
       <c r="F131" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G131" s="55" t="s">
-        <v>498</v>
+      <c r="G131" s="47" t="s">
+        <v>1033</v>
       </c>
       <c r="H131" s="38" t="s">
         <v>246</v>
@@ -13334,13 +13662,13 @@
         <v>1</v>
       </c>
       <c r="L131" s="75">
-        <v>624</v>
+        <v>128</v>
       </c>
       <c r="M131" s="38"/>
     </row>
     <row r="132" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="46">
-        <v>625</v>
+        <v>129</v>
       </c>
       <c r="B132" s="61" t="s">
         <v>491</v>
@@ -13357,8 +13685,8 @@
       <c r="F132" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G132" s="55" t="s">
-        <v>499</v>
+      <c r="G132" s="47" t="s">
+        <v>1034</v>
       </c>
       <c r="H132" s="38" t="s">
         <v>246</v>
@@ -13373,13 +13701,13 @@
         <v>1</v>
       </c>
       <c r="L132" s="75">
-        <v>625</v>
+        <v>129</v>
       </c>
       <c r="M132" s="38"/>
     </row>
     <row r="133" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="46">
-        <v>626</v>
+        <v>130</v>
       </c>
       <c r="B133" s="61" t="s">
         <v>491</v>
@@ -13396,8 +13724,8 @@
       <c r="F133" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G133" s="55" t="s">
-        <v>500</v>
+      <c r="G133" s="47" t="s">
+        <v>1035</v>
       </c>
       <c r="H133" s="38" t="s">
         <v>246</v>
@@ -13412,13 +13740,13 @@
         <v>1</v>
       </c>
       <c r="L133" s="75">
-        <v>626</v>
+        <v>130</v>
       </c>
       <c r="M133" s="38"/>
     </row>
     <row r="134" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="46">
-        <v>627</v>
+        <v>131</v>
       </c>
       <c r="B134" s="61" t="s">
         <v>491</v>
@@ -13435,8 +13763,8 @@
       <c r="F134" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G134" s="55" t="s">
-        <v>501</v>
+      <c r="G134" s="47" t="s">
+        <v>1036</v>
       </c>
       <c r="H134" s="38" t="s">
         <v>246</v>
@@ -13451,13 +13779,13 @@
         <v>1</v>
       </c>
       <c r="L134" s="75">
-        <v>627</v>
+        <v>131</v>
       </c>
       <c r="M134" s="38"/>
     </row>
     <row r="135" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="46">
-        <v>628</v>
+        <v>132</v>
       </c>
       <c r="B135" s="61" t="s">
         <v>491</v>
@@ -13474,8 +13802,8 @@
       <c r="F135" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G135" s="55" t="s">
-        <v>502</v>
+      <c r="G135" s="47" t="s">
+        <v>1037</v>
       </c>
       <c r="H135" s="38" t="s">
         <v>246</v>
@@ -13490,13 +13818,13 @@
         <v>1</v>
       </c>
       <c r="L135" s="75">
-        <v>628</v>
+        <v>132</v>
       </c>
       <c r="M135" s="38"/>
     </row>
     <row r="136" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="46">
-        <v>629</v>
+        <v>133</v>
       </c>
       <c r="B136" s="61" t="s">
         <v>491</v>
@@ -13513,8 +13841,8 @@
       <c r="F136" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G136" s="55" t="s">
-        <v>503</v>
+      <c r="G136" s="47" t="s">
+        <v>1038</v>
       </c>
       <c r="H136" s="38" t="s">
         <v>246</v>
@@ -13529,13 +13857,13 @@
         <v>1</v>
       </c>
       <c r="L136" s="75">
-        <v>629</v>
+        <v>133</v>
       </c>
       <c r="M136" s="38"/>
     </row>
     <row r="137" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="46">
-        <v>630</v>
+        <v>134</v>
       </c>
       <c r="B137" s="40" t="s">
         <v>575</v>
@@ -13552,8 +13880,8 @@
       <c r="F137" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G137" s="63" t="s">
-        <v>576</v>
+      <c r="G137" s="47" t="s">
+        <v>1039</v>
       </c>
       <c r="H137" s="38" t="s">
         <v>246</v>
@@ -13568,13 +13896,13 @@
         <v>1</v>
       </c>
       <c r="L137" s="75">
-        <v>630</v>
+        <v>134</v>
       </c>
       <c r="M137" s="38"/>
     </row>
     <row r="138" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="46">
-        <v>631</v>
+        <v>135</v>
       </c>
       <c r="B138" s="40" t="s">
         <v>575</v>
@@ -13591,8 +13919,8 @@
       <c r="F138" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G138" s="63" t="s">
-        <v>578</v>
+      <c r="G138" s="47" t="s">
+        <v>1040</v>
       </c>
       <c r="H138" s="38" t="s">
         <v>246</v>
@@ -13607,13 +13935,13 @@
         <v>1</v>
       </c>
       <c r="L138" s="75">
-        <v>631</v>
+        <v>135</v>
       </c>
       <c r="M138" s="38"/>
     </row>
     <row r="139" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="46">
-        <v>632</v>
+        <v>136</v>
       </c>
       <c r="B139" s="40" t="s">
         <v>575</v>
@@ -13630,8 +13958,8 @@
       <c r="F139" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G139" s="63" t="s">
-        <v>580</v>
+      <c r="G139" s="47" t="s">
+        <v>1041</v>
       </c>
       <c r="H139" s="38" t="s">
         <v>246</v>
@@ -13646,13 +13974,13 @@
         <v>1</v>
       </c>
       <c r="L139" s="75">
-        <v>632</v>
+        <v>136</v>
       </c>
       <c r="M139" s="38"/>
     </row>
     <row r="140" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="46">
-        <v>633</v>
+        <v>137</v>
       </c>
       <c r="B140" s="40" t="s">
         <v>575</v>
@@ -13669,8 +13997,8 @@
       <c r="F140" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G140" s="63" t="s">
-        <v>582</v>
+      <c r="G140" s="47" t="s">
+        <v>1042</v>
       </c>
       <c r="H140" s="38" t="s">
         <v>246</v>
@@ -13685,13 +14013,13 @@
         <v>1</v>
       </c>
       <c r="L140" s="75">
-        <v>633</v>
+        <v>137</v>
       </c>
       <c r="M140" s="38"/>
     </row>
     <row r="141" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="46">
-        <v>634</v>
+        <v>138</v>
       </c>
       <c r="B141" s="40" t="s">
         <v>575</v>
@@ -13708,8 +14036,8 @@
       <c r="F141" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G141" s="63" t="s">
-        <v>584</v>
+      <c r="G141" s="47" t="s">
+        <v>1043</v>
       </c>
       <c r="H141" s="38" t="s">
         <v>246</v>
@@ -13724,13 +14052,13 @@
         <v>1</v>
       </c>
       <c r="L141" s="75">
-        <v>634</v>
+        <v>138</v>
       </c>
       <c r="M141" s="38"/>
     </row>
     <row r="142" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="46">
-        <v>635</v>
+        <v>139</v>
       </c>
       <c r="B142" s="40" t="s">
         <v>586</v>
@@ -13747,8 +14075,8 @@
       <c r="F142" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G142" s="55" t="s">
-        <v>587</v>
+      <c r="G142" s="47" t="s">
+        <v>1044</v>
       </c>
       <c r="H142" s="38" t="s">
         <v>246</v>
@@ -13763,13 +14091,13 @@
         <v>1</v>
       </c>
       <c r="L142" s="75">
-        <v>635</v>
+        <v>139</v>
       </c>
       <c r="M142" s="38"/>
     </row>
     <row r="143" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="46">
-        <v>636</v>
+        <v>140</v>
       </c>
       <c r="B143" s="40" t="s">
         <v>586</v>
@@ -13786,8 +14114,8 @@
       <c r="F143" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G143" s="63" t="s">
-        <v>589</v>
+      <c r="G143" s="47" t="s">
+        <v>1045</v>
       </c>
       <c r="H143" s="38" t="s">
         <v>246</v>
@@ -13802,13 +14130,13 @@
         <v>1</v>
       </c>
       <c r="L143" s="75">
-        <v>636</v>
+        <v>140</v>
       </c>
       <c r="M143" s="38"/>
     </row>
     <row r="144" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="46">
-        <v>637</v>
+        <v>141</v>
       </c>
       <c r="B144" s="40" t="s">
         <v>591</v>
@@ -13825,8 +14153,8 @@
       <c r="F144" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G144" s="63" t="s">
-        <v>592</v>
+      <c r="G144" s="47" t="s">
+        <v>1046</v>
       </c>
       <c r="H144" s="38" t="s">
         <v>246</v>
@@ -13841,15 +14169,15 @@
         <v>1</v>
       </c>
       <c r="L144" s="75">
-        <v>637</v>
+        <v>141</v>
       </c>
       <c r="M144" s="77" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="46">
-        <v>638</v>
+        <v>142</v>
       </c>
       <c r="B145" s="40" t="s">
         <v>591</v>
@@ -13866,8 +14194,8 @@
       <c r="F145" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G145" s="63" t="s">
-        <v>593</v>
+      <c r="G145" s="47" t="s">
+        <v>1047</v>
       </c>
       <c r="H145" s="38" t="s">
         <v>246</v>
@@ -13882,15 +14210,15 @@
         <v>1</v>
       </c>
       <c r="L145" s="75">
-        <v>638</v>
+        <v>142</v>
       </c>
       <c r="M145" s="77" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="49" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B146" s="50" t="s">
         <v>364</v>
@@ -13921,7 +14249,7 @@
     </row>
     <row r="147" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="46">
-        <v>639</v>
+        <v>143</v>
       </c>
       <c r="B147" s="40" t="s">
         <v>596</v>
@@ -13936,10 +14264,10 @@
         <v>610</v>
       </c>
       <c r="F147" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G147" s="63" t="s">
-        <v>597</v>
+        <v>670</v>
+      </c>
+      <c r="G147" s="47" t="s">
+        <v>1048</v>
       </c>
       <c r="H147" s="38" t="s">
         <v>246</v>
@@ -13954,15 +14282,15 @@
         <v>1</v>
       </c>
       <c r="L147" s="75">
-        <v>639</v>
+        <v>143</v>
       </c>
       <c r="M147" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="46">
-        <v>640</v>
+        <v>144</v>
       </c>
       <c r="B148" s="40" t="s">
         <v>596</v>
@@ -13977,10 +14305,10 @@
         <v>611</v>
       </c>
       <c r="F148" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G148" s="63" t="s">
-        <v>598</v>
+        <v>670</v>
+      </c>
+      <c r="G148" s="47" t="s">
+        <v>1049</v>
       </c>
       <c r="H148" s="38" t="s">
         <v>246</v>
@@ -13995,15 +14323,15 @@
         <v>1</v>
       </c>
       <c r="L148" s="75">
-        <v>640</v>
+        <v>144</v>
       </c>
       <c r="M148" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="46">
-        <v>641</v>
+        <v>145</v>
       </c>
       <c r="B149" s="40" t="s">
         <v>596</v>
@@ -14018,10 +14346,10 @@
         <v>612</v>
       </c>
       <c r="F149" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G149" s="63" t="s">
-        <v>599</v>
+        <v>670</v>
+      </c>
+      <c r="G149" s="47" t="s">
+        <v>1050</v>
       </c>
       <c r="H149" s="38" t="s">
         <v>246</v>
@@ -14036,15 +14364,15 @@
         <v>1</v>
       </c>
       <c r="L149" s="75">
-        <v>641</v>
+        <v>145</v>
       </c>
       <c r="M149" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="46">
-        <v>642</v>
+        <v>146</v>
       </c>
       <c r="B150" s="40" t="s">
         <v>596</v>
@@ -14059,10 +14387,10 @@
         <v>613</v>
       </c>
       <c r="F150" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G150" s="63" t="s">
-        <v>600</v>
+        <v>670</v>
+      </c>
+      <c r="G150" s="47" t="s">
+        <v>1051</v>
       </c>
       <c r="H150" s="38" t="s">
         <v>246</v>
@@ -14077,15 +14405,15 @@
         <v>1</v>
       </c>
       <c r="L150" s="75">
-        <v>642</v>
+        <v>146</v>
       </c>
       <c r="M150" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="46">
-        <v>643</v>
+        <v>147</v>
       </c>
       <c r="B151" s="40" t="s">
         <v>596</v>
@@ -14100,10 +14428,10 @@
         <v>614</v>
       </c>
       <c r="F151" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G151" s="63" t="s">
-        <v>601</v>
+        <v>670</v>
+      </c>
+      <c r="G151" s="47" t="s">
+        <v>1052</v>
       </c>
       <c r="H151" s="38" t="s">
         <v>246</v>
@@ -14118,15 +14446,15 @@
         <v>1</v>
       </c>
       <c r="L151" s="75">
-        <v>643</v>
+        <v>147</v>
       </c>
       <c r="M151" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="46">
-        <v>644</v>
+        <v>148</v>
       </c>
       <c r="B152" s="40" t="s">
         <v>596</v>
@@ -14141,10 +14469,10 @@
         <v>615</v>
       </c>
       <c r="F152" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G152" s="63" t="s">
-        <v>602</v>
+        <v>670</v>
+      </c>
+      <c r="G152" s="47" t="s">
+        <v>1053</v>
       </c>
       <c r="H152" s="38" t="s">
         <v>246</v>
@@ -14159,15 +14487,15 @@
         <v>1</v>
       </c>
       <c r="L152" s="75">
-        <v>644</v>
+        <v>148</v>
       </c>
       <c r="M152" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="46">
-        <v>645</v>
+        <v>149</v>
       </c>
       <c r="B153" s="40" t="s">
         <v>596</v>
@@ -14182,10 +14510,10 @@
         <v>616</v>
       </c>
       <c r="F153" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G153" s="63" t="s">
-        <v>603</v>
+        <v>670</v>
+      </c>
+      <c r="G153" s="47" t="s">
+        <v>1054</v>
       </c>
       <c r="H153" s="38" t="s">
         <v>246</v>
@@ -14200,15 +14528,15 @@
         <v>1</v>
       </c>
       <c r="L153" s="75">
-        <v>645</v>
+        <v>149</v>
       </c>
       <c r="M153" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="46">
-        <v>646</v>
+        <v>150</v>
       </c>
       <c r="B154" s="40" t="s">
         <v>596</v>
@@ -14223,10 +14551,10 @@
         <v>617</v>
       </c>
       <c r="F154" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G154" s="63" t="s">
-        <v>604</v>
+        <v>670</v>
+      </c>
+      <c r="G154" s="47" t="s">
+        <v>1055</v>
       </c>
       <c r="H154" s="38" t="s">
         <v>246</v>
@@ -14241,15 +14569,15 @@
         <v>1</v>
       </c>
       <c r="L154" s="75">
-        <v>646</v>
+        <v>150</v>
       </c>
       <c r="M154" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="46">
-        <v>647</v>
+        <v>151</v>
       </c>
       <c r="B155" s="40" t="s">
         <v>596</v>
@@ -14264,10 +14592,10 @@
         <v>618</v>
       </c>
       <c r="F155" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G155" s="63" t="s">
-        <v>605</v>
+        <v>670</v>
+      </c>
+      <c r="G155" s="47" t="s">
+        <v>1056</v>
       </c>
       <c r="H155" s="38" t="s">
         <v>246</v>
@@ -14282,15 +14610,15 @@
         <v>1</v>
       </c>
       <c r="L155" s="75">
-        <v>647</v>
+        <v>151</v>
       </c>
       <c r="M155" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="46">
-        <v>648</v>
+        <v>152</v>
       </c>
       <c r="B156" s="53" t="s">
         <v>596</v>
@@ -14305,10 +14633,10 @@
         <v>619</v>
       </c>
       <c r="F156" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G156" s="69" t="s">
-        <v>606</v>
+        <v>670</v>
+      </c>
+      <c r="G156" s="47" t="s">
+        <v>1057</v>
       </c>
       <c r="H156" s="38" t="s">
         <v>246</v>
@@ -14323,15 +14651,15 @@
         <v>1</v>
       </c>
       <c r="L156" s="75">
-        <v>648</v>
+        <v>152</v>
       </c>
       <c r="M156" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="46">
-        <v>649</v>
+        <v>153</v>
       </c>
       <c r="B157" s="53" t="s">
         <v>596</v>
@@ -14346,10 +14674,10 @@
         <v>620</v>
       </c>
       <c r="F157" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G157" s="69" t="s">
-        <v>607</v>
+        <v>670</v>
+      </c>
+      <c r="G157" s="47" t="s">
+        <v>1058</v>
       </c>
       <c r="H157" s="38" t="s">
         <v>246</v>
@@ -14364,15 +14692,15 @@
         <v>1</v>
       </c>
       <c r="L157" s="75">
-        <v>649</v>
+        <v>153</v>
       </c>
       <c r="M157" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="46">
-        <v>650</v>
+        <v>154</v>
       </c>
       <c r="B158" s="53" t="s">
         <v>596</v>
@@ -14387,10 +14715,10 @@
         <v>621</v>
       </c>
       <c r="F158" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G158" s="69" t="s">
-        <v>608</v>
+        <v>670</v>
+      </c>
+      <c r="G158" s="47" t="s">
+        <v>1059</v>
       </c>
       <c r="H158" s="38" t="s">
         <v>246</v>
@@ -14405,13 +14733,13 @@
         <v>1</v>
       </c>
       <c r="L158" s="75">
-        <v>650</v>
+        <v>154</v>
       </c>
       <c r="M158" s="77"/>
     </row>
     <row r="159" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="46">
-        <v>651</v>
+        <v>155</v>
       </c>
       <c r="B159" s="53" t="s">
         <v>596</v>
@@ -14426,10 +14754,10 @@
         <v>622</v>
       </c>
       <c r="F159" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G159" s="69" t="s">
-        <v>609</v>
+        <v>670</v>
+      </c>
+      <c r="G159" s="47" t="s">
+        <v>1060</v>
       </c>
       <c r="H159" s="38" t="s">
         <v>246</v>
@@ -14444,15 +14772,15 @@
         <v>1</v>
       </c>
       <c r="L159" s="75">
-        <v>651</v>
+        <v>155</v>
       </c>
       <c r="M159" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="49" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B160" s="50" t="s">
         <v>364</v>
@@ -14483,7 +14811,7 @@
     </row>
     <row r="161" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="46">
-        <v>652</v>
+        <v>156</v>
       </c>
       <c r="B161" s="40" t="s">
         <v>623</v>
@@ -14498,10 +14826,10 @@
         <v>629</v>
       </c>
       <c r="F161" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G161" s="63" t="s">
-        <v>597</v>
+        <v>670</v>
+      </c>
+      <c r="G161" s="47" t="s">
+        <v>1061</v>
       </c>
       <c r="H161" s="38" t="s">
         <v>246</v>
@@ -14516,15 +14844,15 @@
         <v>1</v>
       </c>
       <c r="L161" s="75">
-        <v>652</v>
+        <v>156</v>
       </c>
       <c r="M161" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="46">
-        <v>653</v>
+        <v>157</v>
       </c>
       <c r="B162" s="40" t="s">
         <v>623</v>
@@ -14539,10 +14867,10 @@
         <v>630</v>
       </c>
       <c r="F162" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G162" s="63" t="s">
-        <v>598</v>
+        <v>670</v>
+      </c>
+      <c r="G162" s="47" t="s">
+        <v>1062</v>
       </c>
       <c r="H162" s="38" t="s">
         <v>246</v>
@@ -14557,15 +14885,15 @@
         <v>1</v>
       </c>
       <c r="L162" s="75">
-        <v>653</v>
+        <v>157</v>
       </c>
       <c r="M162" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="46">
-        <v>654</v>
+        <v>158</v>
       </c>
       <c r="B163" s="40" t="s">
         <v>623</v>
@@ -14580,10 +14908,10 @@
         <v>631</v>
       </c>
       <c r="F163" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G163" s="63" t="s">
-        <v>624</v>
+        <v>670</v>
+      </c>
+      <c r="G163" s="47" t="s">
+        <v>1063</v>
       </c>
       <c r="H163" s="38" t="s">
         <v>246</v>
@@ -14598,15 +14926,15 @@
         <v>1</v>
       </c>
       <c r="L163" s="75">
-        <v>654</v>
+        <v>158</v>
       </c>
       <c r="M163" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="46">
-        <v>655</v>
+        <v>159</v>
       </c>
       <c r="B164" s="40" t="s">
         <v>623</v>
@@ -14621,10 +14949,10 @@
         <v>632</v>
       </c>
       <c r="F164" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G164" s="63" t="s">
-        <v>625</v>
+        <v>670</v>
+      </c>
+      <c r="G164" s="47" t="s">
+        <v>1064</v>
       </c>
       <c r="H164" s="38" t="s">
         <v>246</v>
@@ -14639,15 +14967,15 @@
         <v>1</v>
       </c>
       <c r="L164" s="75">
-        <v>655</v>
+        <v>159</v>
       </c>
       <c r="M164" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="46">
-        <v>656</v>
+        <v>160</v>
       </c>
       <c r="B165" s="40" t="s">
         <v>623</v>
@@ -14662,10 +14990,10 @@
         <v>633</v>
       </c>
       <c r="F165" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G165" s="63" t="s">
-        <v>626</v>
+        <v>670</v>
+      </c>
+      <c r="G165" s="47" t="s">
+        <v>1065</v>
       </c>
       <c r="H165" s="38" t="s">
         <v>246</v>
@@ -14680,15 +15008,15 @@
         <v>1</v>
       </c>
       <c r="L165" s="75">
-        <v>656</v>
+        <v>160</v>
       </c>
       <c r="M165" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="46">
-        <v>657</v>
+        <v>161</v>
       </c>
       <c r="B166" s="40" t="s">
         <v>623</v>
@@ -14703,10 +15031,10 @@
         <v>634</v>
       </c>
       <c r="F166" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G166" s="63" t="s">
-        <v>627</v>
+        <v>670</v>
+      </c>
+      <c r="G166" s="47" t="s">
+        <v>1066</v>
       </c>
       <c r="H166" s="38" t="s">
         <v>246</v>
@@ -14721,15 +15049,15 @@
         <v>1</v>
       </c>
       <c r="L166" s="75">
-        <v>657</v>
+        <v>161</v>
       </c>
       <c r="M166" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="46">
-        <v>658</v>
+        <v>162</v>
       </c>
       <c r="B167" s="40" t="s">
         <v>623</v>
@@ -14744,10 +15072,10 @@
         <v>635</v>
       </c>
       <c r="F167" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G167" s="64" t="s">
-        <v>628</v>
+        <v>670</v>
+      </c>
+      <c r="G167" s="47" t="s">
+        <v>1067</v>
       </c>
       <c r="H167" s="38" t="s">
         <v>246</v>
@@ -14762,15 +15090,15 @@
         <v>1</v>
       </c>
       <c r="L167" s="75">
-        <v>658</v>
+        <v>162</v>
       </c>
       <c r="M167" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="49" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B168" s="50" t="s">
         <v>364</v>
@@ -14801,25 +15129,25 @@
     </row>
     <row r="169" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="46">
-        <v>659</v>
+        <v>163</v>
       </c>
       <c r="B169" s="40" t="s">
         <v>636</v>
       </c>
       <c r="C169" s="65" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D169" s="65" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E169" s="47" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F169" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G169" s="65" t="s">
-        <v>676</v>
+      <c r="G169" s="47" t="s">
+        <v>1068</v>
       </c>
       <c r="H169" s="38" t="s">
         <v>246</v>
@@ -14834,15 +15162,15 @@
         <v>1</v>
       </c>
       <c r="L169" s="75">
-        <v>659</v>
+        <v>163</v>
       </c>
       <c r="M169" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="46">
-        <v>660</v>
+        <v>164</v>
       </c>
       <c r="B170" s="40" t="s">
         <v>636</v>
@@ -14854,13 +15182,13 @@
         <v>637</v>
       </c>
       <c r="E170" s="47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F170" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G170" s="65" t="s">
-        <v>637</v>
+        <v>670</v>
+      </c>
+      <c r="G170" s="47" t="s">
+        <v>1069</v>
       </c>
       <c r="H170" s="38" t="s">
         <v>246</v>
@@ -14875,33 +15203,33 @@
         <v>1</v>
       </c>
       <c r="L170" s="75">
-        <v>660</v>
+        <v>164</v>
       </c>
       <c r="M170" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="46">
-        <v>661</v>
+        <v>165</v>
       </c>
       <c r="B171" s="40" t="s">
         <v>636</v>
       </c>
       <c r="C171" s="66" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D171" s="66" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E171" s="47" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F171" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G171" s="66" t="s">
-        <v>638</v>
+        <v>670</v>
+      </c>
+      <c r="G171" s="47" t="s">
+        <v>1070</v>
       </c>
       <c r="H171" s="38" t="s">
         <v>246</v>
@@ -14916,33 +15244,33 @@
         <v>1</v>
       </c>
       <c r="L171" s="75">
-        <v>661</v>
+        <v>165</v>
       </c>
       <c r="M171" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="46">
-        <v>662</v>
+        <v>166</v>
       </c>
       <c r="B172" s="40" t="s">
         <v>636</v>
       </c>
       <c r="C172" s="60" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D172" s="60" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E172" s="47" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F172" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G172" s="60" t="s">
-        <v>639</v>
+        <v>670</v>
+      </c>
+      <c r="G172" s="47" t="s">
+        <v>1071</v>
       </c>
       <c r="H172" s="38" t="s">
         <v>246</v>
@@ -14957,33 +15285,33 @@
         <v>1</v>
       </c>
       <c r="L172" s="75">
-        <v>662</v>
+        <v>166</v>
       </c>
       <c r="M172" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="46">
-        <v>663</v>
+        <v>167</v>
       </c>
       <c r="B173" s="40" t="s">
         <v>636</v>
       </c>
       <c r="C173" s="67" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D173" s="67" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E173" s="47" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F173" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G173" s="67" t="s">
-        <v>640</v>
+        <v>670</v>
+      </c>
+      <c r="G173" s="47" t="s">
+        <v>1072</v>
       </c>
       <c r="H173" s="38" t="s">
         <v>246</v>
@@ -14998,33 +15326,33 @@
         <v>1</v>
       </c>
       <c r="L173" s="75">
-        <v>663</v>
+        <v>167</v>
       </c>
       <c r="M173" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="46">
-        <v>664</v>
+        <v>168</v>
       </c>
       <c r="B174" s="40" t="s">
         <v>636</v>
       </c>
       <c r="C174" s="60" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D174" s="60" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E174" s="47" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F174" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G174" s="60" t="s">
-        <v>641</v>
+        <v>670</v>
+      </c>
+      <c r="G174" s="47" t="s">
+        <v>1073</v>
       </c>
       <c r="H174" s="38" t="s">
         <v>246</v>
@@ -15039,33 +15367,33 @@
         <v>1</v>
       </c>
       <c r="L174" s="75">
-        <v>664</v>
+        <v>168</v>
       </c>
       <c r="M174" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="46">
-        <v>665</v>
+        <v>169</v>
       </c>
       <c r="B175" s="40" t="s">
         <v>636</v>
       </c>
       <c r="C175" s="60" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D175" s="60" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E175" s="47" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F175" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G175" s="60" t="s">
-        <v>642</v>
+        <v>670</v>
+      </c>
+      <c r="G175" s="47" t="s">
+        <v>1074</v>
       </c>
       <c r="H175" s="38" t="s">
         <v>246</v>
@@ -15080,33 +15408,33 @@
         <v>1</v>
       </c>
       <c r="L175" s="75">
-        <v>665</v>
+        <v>169</v>
       </c>
       <c r="M175" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="46">
-        <v>666</v>
+        <v>170</v>
       </c>
       <c r="B176" s="40" t="s">
         <v>636</v>
       </c>
       <c r="C176" s="60" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D176" s="60" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E176" s="47" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F176" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G176" s="60" t="s">
-        <v>643</v>
+        <v>670</v>
+      </c>
+      <c r="G176" s="47" t="s">
+        <v>1075</v>
       </c>
       <c r="H176" s="38" t="s">
         <v>246</v>
@@ -15121,33 +15449,33 @@
         <v>1</v>
       </c>
       <c r="L176" s="75">
-        <v>666</v>
+        <v>170</v>
       </c>
       <c r="M176" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="46">
-        <v>667</v>
+        <v>171</v>
       </c>
       <c r="B177" s="40" t="s">
         <v>636</v>
       </c>
       <c r="C177" s="60" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D177" s="60" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E177" s="47" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F177" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="G177" s="60" t="s">
-        <v>644</v>
+        <v>670</v>
+      </c>
+      <c r="G177" s="47" t="s">
+        <v>1076</v>
       </c>
       <c r="H177" s="38" t="s">
         <v>246</v>
@@ -15162,33 +15490,33 @@
         <v>1</v>
       </c>
       <c r="L177" s="75">
-        <v>667</v>
+        <v>171</v>
       </c>
       <c r="M177" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="46">
-        <v>668</v>
+        <v>172</v>
       </c>
       <c r="B178" s="40" t="s">
         <v>636</v>
       </c>
       <c r="C178" s="60" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D178" s="60" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E178" s="47" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F178" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="G178" s="60" t="s">
-        <v>645</v>
+      <c r="G178" s="47" t="s">
+        <v>1077</v>
       </c>
       <c r="H178" s="38" t="s">
         <v>246</v>
@@ -15203,21 +15531,21 @@
         <v>1</v>
       </c>
       <c r="L178" s="75">
-        <v>668</v>
+        <v>172</v>
       </c>
       <c r="M178" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="49" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B179" s="50" t="s">
         <v>364</v>
       </c>
       <c r="C179" s="50" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D179" s="50"/>
       <c r="E179" s="51" t="s">
@@ -15242,25 +15570,25 @@
     </row>
     <row r="180" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="46">
-        <v>669</v>
+        <v>173</v>
       </c>
       <c r="B180" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="C180" s="55" t="s">
         <v>655</v>
       </c>
-      <c r="C180" s="55" t="s">
-        <v>656</v>
-      </c>
       <c r="D180" s="55" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E180" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F180" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G180" s="55" t="s">
-        <v>656</v>
+      <c r="G180" s="47" t="s">
+        <v>1078</v>
       </c>
       <c r="H180" s="38" t="s">
         <v>246</v>
@@ -15275,31 +15603,31 @@
         <v>1</v>
       </c>
       <c r="L180" s="75">
-        <v>669</v>
+        <v>173</v>
       </c>
       <c r="M180" s="38"/>
     </row>
     <row r="181" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="46">
-        <v>670</v>
+        <v>174</v>
       </c>
       <c r="B181" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C181" s="55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D181" s="55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E181" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F181" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G181" s="55" t="s">
-        <v>657</v>
+      <c r="G181" s="47" t="s">
+        <v>1079</v>
       </c>
       <c r="H181" s="38" t="s">
         <v>246</v>
@@ -15314,31 +15642,31 @@
         <v>1</v>
       </c>
       <c r="L181" s="75">
-        <v>670</v>
+        <v>174</v>
       </c>
       <c r="M181" s="38"/>
     </row>
     <row r="182" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="46">
-        <v>671</v>
+        <v>175</v>
       </c>
       <c r="B182" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C182" s="55" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D182" s="55" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E182" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F182" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G182" s="55" t="s">
-        <v>658</v>
+      <c r="G182" s="47" t="s">
+        <v>1080</v>
       </c>
       <c r="H182" s="38" t="s">
         <v>246</v>
@@ -15353,31 +15681,31 @@
         <v>1</v>
       </c>
       <c r="L182" s="75">
-        <v>671</v>
+        <v>175</v>
       </c>
       <c r="M182" s="38"/>
     </row>
     <row r="183" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="46">
-        <v>672</v>
+        <v>176</v>
       </c>
       <c r="B183" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C183" s="55" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D183" s="55" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E183" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F183" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G183" s="55" t="s">
-        <v>659</v>
+      <c r="G183" s="47" t="s">
+        <v>1081</v>
       </c>
       <c r="H183" s="38" t="s">
         <v>246</v>
@@ -15392,31 +15720,31 @@
         <v>1</v>
       </c>
       <c r="L183" s="75">
-        <v>672</v>
+        <v>176</v>
       </c>
       <c r="M183" s="38"/>
     </row>
     <row r="184" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="46">
-        <v>673</v>
+        <v>177</v>
       </c>
       <c r="B184" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C184" s="55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D184" s="55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E184" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F184" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G184" s="55" t="s">
-        <v>660</v>
+      <c r="G184" s="47" t="s">
+        <v>1082</v>
       </c>
       <c r="H184" s="38" t="s">
         <v>246</v>
@@ -15431,31 +15759,31 @@
         <v>1</v>
       </c>
       <c r="L184" s="75">
-        <v>673</v>
+        <v>177</v>
       </c>
       <c r="M184" s="38"/>
     </row>
     <row r="185" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="46">
-        <v>674</v>
+        <v>178</v>
       </c>
       <c r="B185" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C185" s="55" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D185" s="55" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E185" s="47" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F185" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G185" s="55" t="s">
-        <v>677</v>
+      <c r="G185" s="47" t="s">
+        <v>1083</v>
       </c>
       <c r="H185" s="38" t="s">
         <v>246</v>
@@ -15470,31 +15798,31 @@
         <v>1</v>
       </c>
       <c r="L185" s="75">
-        <v>674</v>
+        <v>178</v>
       </c>
       <c r="M185" s="38"/>
     </row>
     <row r="186" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="46">
-        <v>675</v>
+        <v>179</v>
       </c>
       <c r="B186" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C186" s="55" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D186" s="55" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E186" s="47" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F186" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="G186" s="55" t="s">
-        <v>661</v>
+      <c r="G186" s="47" t="s">
+        <v>1084</v>
       </c>
       <c r="H186" s="38" t="s">
         <v>246</v>
@@ -15509,7 +15837,7 @@
         <v>1</v>
       </c>
       <c r="L186" s="75">
-        <v>675</v>
+        <v>179</v>
       </c>
       <c r="M186" s="38"/>
     </row>
@@ -15517,71 +15845,71 @@
   <autoFilter ref="A1:L186" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="20" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="duplicateValues" dxfId="19" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146">
-    <cfRule type="duplicateValues" dxfId="18" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="duplicateValues" dxfId="17" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168">
-    <cfRule type="duplicateValues" dxfId="16" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179">
-    <cfRule type="duplicateValues" dxfId="15" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="duplicateValues" dxfId="14" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="366"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J50">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:J145">
-    <cfRule type="cellIs" dxfId="11" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="171" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="172" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J147:J159">
-    <cfRule type="cellIs" dxfId="9" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="168" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="169" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J161:J167">
-    <cfRule type="cellIs" dxfId="7" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="165" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="166" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J169:J178">
-    <cfRule type="cellIs" dxfId="5" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="249" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="250" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J180:J186">
-    <cfRule type="cellIs" dxfId="3" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="159" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="160" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J50">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="160" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15633,21 +15961,21 @@
         <v>253</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>882</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>885</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>245</v>
@@ -15668,7 +15996,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>245</v>
@@ -15689,23 +16017,23 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="76" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>889</v>
-      </c>
       <c r="I4" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -15749,7 +16077,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>245</v>
@@ -15766,7 +16094,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>245</v>
@@ -15822,7 +16150,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>245</v>
@@ -15839,7 +16167,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>245</v>
@@ -15856,13 +16184,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>245</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -15914,16 +16242,16 @@
         <v>253</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>885</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -15964,16 +16292,16 @@
         <v>254</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>889</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -16054,16 +16382,16 @@
         <v>56</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>780</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -16089,7 +16417,7 @@
         <v>361</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>28</v>
@@ -16098,10 +16426,10 @@
         <v>262</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -16209,16 +16537,16 @@
         <v>56</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>780</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -16244,7 +16572,7 @@
         <v>361</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>28</v>
@@ -16253,10 +16581,10 @@
         <v>262</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -16357,13 +16685,13 @@
         <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>780</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -16395,7 +16723,7 @@
         <v>262</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -16497,16 +16825,16 @@
         <v>56</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>780</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -16517,7 +16845,7 @@
         <v>245</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>32</v>
@@ -16532,19 +16860,19 @@
         <v>361</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>262</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -16555,7 +16883,7 @@
         <v>245</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>32</v>
@@ -16650,16 +16978,16 @@
         <v>56</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>780</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -16670,7 +16998,7 @@
         <v>245</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>32</v>
@@ -16679,25 +17007,25 @@
         <v>254</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>262</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -19667,124 +19995,124 @@
         <v>253</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>272</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>683</v>
-      </c>
       <c r="P1" s="16" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="S1" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>711</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>713</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>723</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
         <v>724</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>725</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AJ1" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="AJ1" s="41" t="s">
+      <c r="AK1" s="41" t="s">
         <v>728</v>
       </c>
-      <c r="AK1" s="41" t="s">
+      <c r="AL1" s="16" t="s">
         <v>729</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>730</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="AO1" s="16" t="s">
         <v>731</v>
       </c>
-      <c r="AN1" s="16" t="s">
-        <v>689</v>
-      </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="AS1" s="16" t="s">
         <v>734</v>
-      </c>
-      <c r="AR1" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="AS1" s="16" t="s">
-        <v>735</v>
       </c>
       <c r="AT1" s="4" t="s">
         <v>338</v>
@@ -19793,7 +20121,7 @@
         <v>339</v>
       </c>
       <c r="AV1" s="16" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.3">
@@ -19813,13 +20141,13 @@
         <v>254</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -19832,40 +20160,40 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>359</v>
       </c>
       <c r="U2" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>699</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>334</v>
       </c>
       <c r="Y2" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="Z2" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>702</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>703</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>335</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AE2" s="6" t="s">
         <v>318</v>
@@ -19892,25 +20220,25 @@
         <v>322</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AO2" s="6" t="s">
         <v>526</v>
       </c>
       <c r="AP2" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
         <v>706</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>707</v>
       </c>
       <c r="AR2" s="6" t="s">
         <v>445</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>344</v>
@@ -19919,7 +20247,7 @@
         <v>345</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.3">
@@ -19939,10 +20267,10 @@
         <v>254</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>349</v>
@@ -20057,13 +20385,13 @@
         <v>254</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -20076,40 +20404,40 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>359</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="V4" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>699</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>334</v>
       </c>
       <c r="Y4" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="Z4" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>702</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>703</v>
       </c>
       <c r="AC4" s="6" t="s">
         <v>335</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>318</v>
@@ -20136,25 +20464,25 @@
         <v>322</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AO4" s="6" t="s">
         <v>526</v>
       </c>
       <c r="AP4" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
         <v>706</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>707</v>
       </c>
       <c r="AR4" s="6" t="s">
         <v>445</v>
       </c>
       <c r="AS4" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>344</v>
@@ -20163,7 +20491,7 @@
         <v>345</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
@@ -20183,10 +20511,10 @@
         <v>254</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>349</v>
@@ -20301,13 +20629,13 @@
         <v>254</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>445</v>
@@ -20316,7 +20644,7 @@
         <v>273</v>
       </c>
       <c r="K6" s="73" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
@@ -20326,48 +20654,48 @@
         <v>331</v>
       </c>
       <c r="O6" s="73" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>359</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="W6" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>699</v>
       </c>
       <c r="X6" s="6"/>
       <c r="Y6" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="Z6" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="AA6" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AB6" s="6" t="s">
         <v>702</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>703</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>335</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AE6" s="6" t="s">
         <v>318</v>
@@ -20395,10 +20723,10 @@
       </c>
       <c r="AM6" s="6"/>
       <c r="AN6" s="73" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AP6" s="6"/>
       <c r="AQ6" s="6"/>
@@ -20406,7 +20734,7 @@
         <v>445</v>
       </c>
       <c r="AS6" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>344</v>
@@ -20415,7 +20743,7 @@
         <v>345</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
@@ -20435,13 +20763,13 @@
         <v>254</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G7" s="73" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>445</v>
@@ -20450,7 +20778,7 @@
         <v>273</v>
       </c>
       <c r="K7" s="73" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
@@ -20460,16 +20788,16 @@
         <v>331</v>
       </c>
       <c r="O7" s="73" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>524</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -20493,7 +20821,7 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
       <c r="AN7" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AO7" s="6" t="s">
         <v>526</v>
@@ -20508,7 +20836,7 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>245</v>
@@ -20523,13 +20851,13 @@
         <v>254</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>445</v>
@@ -20538,7 +20866,7 @@
         <v>273</v>
       </c>
       <c r="K8" s="73" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>251</v>
@@ -21346,7 +21674,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>245</v>
@@ -21728,13 +22056,13 @@
         <v>523</v>
       </c>
       <c r="AD1" s="16" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AG1" s="16" t="s">
         <v>272</v>
@@ -21743,19 +22071,19 @@
         <v>56</v>
       </c>
       <c r="AI1" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
         <v>790</v>
       </c>
-      <c r="AJ1" s="16" t="s">
-        <v>791</v>
-      </c>
       <c r="AK1" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="AL1" s="16" t="s">
         <v>793</v>
       </c>
-      <c r="AL1" s="16" t="s">
-        <v>794</v>
-      </c>
       <c r="AM1" s="16" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
@@ -21829,7 +22157,7 @@
         <v>524</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>529</v>
@@ -21837,13 +22165,13 @@
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>273</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
@@ -21997,16 +22325,16 @@
         <v>252</v>
       </c>
       <c r="AJ4" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AK4" s="6" t="s">
         <v>322</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
@@ -22060,10 +22388,10 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
@@ -22171,7 +22499,7 @@
         <v>343</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>115</v>
@@ -22209,7 +22537,7 @@
         <v>343</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>115</v>
@@ -22271,7 +22599,7 @@
         <v>343</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>115</v>
@@ -22309,7 +22637,7 @@
         <v>343</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>115</v>

--- a/src/test/resources/Run_Manager_Rental_Incident.xlsx
+++ b/src/test/resources/Run_Manager_Rental_Incident.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656983AB-3A98-4E69-BF8F-0E0EA9CB6EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340E0BA6-4AEF-4BBE-8907-FDA6EF28146E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1084">
   <si>
     <t>P_Key</t>
   </si>
@@ -6547,12 +6547,6 @@
     <t>66 677</t>
   </si>
   <si>
-    <t>Can not submit rental incident request</t>
-  </si>
-  <si>
-    <t>Depending on TC_93/TC_94</t>
-  </si>
-  <si>
     <t>Automation1111</t>
   </si>
   <si>
@@ -7409,6 +7403,9 @@
   </si>
   <si>
     <t>RentalIncident_TC_131</t>
+  </si>
+  <si>
+    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -8548,11 +8545,11 @@
   <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D166" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="M186" sqref="M186"/>
+      <selection pane="bottomRight" activeCell="M181" sqref="M181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8616,7 +8613,7 @@
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>739</v>
@@ -8663,7 +8660,7 @@
         <v>741</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>246</v>
@@ -8693,7 +8690,7 @@
         <v>280</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>771</v>
@@ -8702,7 +8699,7 @@
         <v>773</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>246</v>
@@ -8732,7 +8729,7 @@
         <v>281</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>772</v>
@@ -8741,7 +8738,7 @@
         <v>774</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>246</v>
@@ -8780,7 +8777,7 @@
         <v>741</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H6" s="38" t="s">
         <v>246</v>
@@ -8810,7 +8807,7 @@
         <v>280</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>776</v>
@@ -8819,7 +8816,7 @@
         <v>773</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H7" s="38" t="s">
         <v>246</v>
@@ -8849,7 +8846,7 @@
         <v>281</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>775</v>
@@ -8858,7 +8855,7 @@
         <v>774</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H8" s="38" t="s">
         <v>246</v>
@@ -8891,13 +8888,13 @@
         <v>753</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>246</v>
@@ -8927,16 +8924,16 @@
         <v>280</v>
       </c>
       <c r="D10" s="47" t="s">
+        <v>805</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>806</v>
+      </c>
+      <c r="F10" s="47" t="s">
         <v>807</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>808</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>809</v>
-      </c>
       <c r="G10" s="47" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>246</v>
@@ -8966,16 +8963,16 @@
         <v>281</v>
       </c>
       <c r="D11" s="47" t="s">
+        <v>808</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>809</v>
+      </c>
+      <c r="F11" s="47" t="s">
         <v>810</v>
       </c>
-      <c r="E11" s="47" t="s">
-        <v>811</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>812</v>
-      </c>
       <c r="G11" s="47" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>246</v>
@@ -9008,13 +9005,13 @@
         <v>760</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>246</v>
@@ -9044,16 +9041,16 @@
         <v>280</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H13" s="38" t="s">
         <v>246</v>
@@ -9083,16 +9080,16 @@
         <v>281</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>246</v>
@@ -9125,13 +9122,13 @@
         <v>754</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>246</v>
@@ -9161,16 +9158,16 @@
         <v>280</v>
       </c>
       <c r="D16" s="47" t="s">
+        <v>818</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>819</v>
+      </c>
+      <c r="F16" s="47" t="s">
         <v>820</v>
       </c>
-      <c r="E16" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>822</v>
-      </c>
       <c r="G16" s="47" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H16" s="38" t="s">
         <v>246</v>
@@ -9200,16 +9197,16 @@
         <v>281</v>
       </c>
       <c r="D17" s="47" t="s">
+        <v>821</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>822</v>
+      </c>
+      <c r="F17" s="47" t="s">
         <v>823</v>
       </c>
-      <c r="E17" s="47" t="s">
-        <v>824</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>825</v>
-      </c>
       <c r="G17" s="47" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H17" s="38" t="s">
         <v>246</v>
@@ -9242,13 +9239,13 @@
         <v>755</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H18" s="38" t="s">
         <v>246</v>
@@ -9278,16 +9275,16 @@
         <v>280</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>246</v>
@@ -9317,16 +9314,16 @@
         <v>281</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H20" s="38" t="s">
         <v>246</v>
@@ -9359,13 +9356,13 @@
         <v>756</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>246</v>
@@ -9395,16 +9392,16 @@
         <v>280</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H22" s="38" t="s">
         <v>246</v>
@@ -9434,16 +9431,16 @@
         <v>281</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>246</v>
@@ -9476,13 +9473,13 @@
         <v>759</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>246</v>
@@ -9512,16 +9509,16 @@
         <v>280</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>246</v>
@@ -9551,16 +9548,16 @@
         <v>281</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>246</v>
@@ -9593,13 +9590,13 @@
         <v>757</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>246</v>
@@ -9629,16 +9626,16 @@
         <v>280</v>
       </c>
       <c r="D28" s="47" t="s">
+        <v>841</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>842</v>
+      </c>
+      <c r="F28" s="47" t="s">
         <v>843</v>
       </c>
-      <c r="E28" s="47" t="s">
-        <v>844</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>845</v>
-      </c>
       <c r="G28" s="47" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>246</v>
@@ -9668,16 +9665,16 @@
         <v>281</v>
       </c>
       <c r="D29" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>845</v>
+      </c>
+      <c r="F29" s="47" t="s">
         <v>846</v>
       </c>
-      <c r="E29" s="47" t="s">
-        <v>847</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>848</v>
-      </c>
       <c r="G29" s="47" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>246</v>
@@ -9710,13 +9707,13 @@
         <v>758</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>246</v>
@@ -9746,16 +9743,16 @@
         <v>280</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>246</v>
@@ -9785,16 +9782,16 @@
         <v>281</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H32" s="38" t="s">
         <v>246</v>
@@ -9827,13 +9824,13 @@
         <v>761</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>246</v>
@@ -9863,16 +9860,16 @@
         <v>280</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H34" s="38" t="s">
         <v>246</v>
@@ -9902,16 +9899,16 @@
         <v>281</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H35" s="38" t="s">
         <v>246</v>
@@ -9944,13 +9941,13 @@
         <v>762</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H36" s="38" t="s">
         <v>246</v>
@@ -9980,16 +9977,16 @@
         <v>280</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>246</v>
@@ -10019,16 +10016,16 @@
         <v>281</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H38" s="38" t="s">
         <v>246</v>
@@ -10061,13 +10058,13 @@
         <v>763</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H39" s="38" t="s">
         <v>246</v>
@@ -10097,16 +10094,16 @@
         <v>280</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H40" s="38" t="s">
         <v>246</v>
@@ -10136,16 +10133,16 @@
         <v>281</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>246</v>
@@ -10178,13 +10175,13 @@
         <v>764</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G42" s="47" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H42" s="38" t="s">
         <v>246</v>
@@ -10214,16 +10211,16 @@
         <v>280</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G43" s="47" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>246</v>
@@ -10253,16 +10250,16 @@
         <v>281</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G44" s="47" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H44" s="38" t="s">
         <v>246</v>
@@ -10295,13 +10292,13 @@
         <v>765</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G45" s="47" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H45" s="38" t="s">
         <v>246</v>
@@ -10331,16 +10328,16 @@
         <v>280</v>
       </c>
       <c r="D46" s="47" t="s">
+        <v>868</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>869</v>
+      </c>
+      <c r="F46" s="47" t="s">
         <v>870</v>
       </c>
-      <c r="E46" s="47" t="s">
-        <v>871</v>
-      </c>
-      <c r="F46" s="47" t="s">
-        <v>872</v>
-      </c>
       <c r="G46" s="47" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H46" s="38" t="s">
         <v>246</v>
@@ -10370,16 +10367,16 @@
         <v>281</v>
       </c>
       <c r="D47" s="47" t="s">
+        <v>871</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>872</v>
+      </c>
+      <c r="F47" s="47" t="s">
         <v>873</v>
       </c>
-      <c r="E47" s="47" t="s">
-        <v>874</v>
-      </c>
-      <c r="F47" s="47" t="s">
-        <v>875</v>
-      </c>
       <c r="G47" s="47" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H47" s="38" t="s">
         <v>246</v>
@@ -10412,13 +10409,13 @@
         <v>766</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G48" s="47" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H48" s="38" t="s">
         <v>246</v>
@@ -10448,16 +10445,16 @@
         <v>280</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G49" s="47" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>246</v>
@@ -10487,16 +10484,16 @@
         <v>281</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G50" s="47" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H50" s="38" t="s">
         <v>246</v>
@@ -10566,13 +10563,13 @@
         <v>392</v>
       </c>
       <c r="G52" s="47" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H52" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J52" s="48" t="s">
         <v>28</v>
@@ -10605,13 +10602,13 @@
         <v>392</v>
       </c>
       <c r="G53" s="47" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H53" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J53" s="48" t="s">
         <v>28</v>
@@ -10644,13 +10641,13 @@
         <v>392</v>
       </c>
       <c r="G54" s="47" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H54" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J54" s="48" t="s">
         <v>28</v>
@@ -10683,13 +10680,13 @@
         <v>392</v>
       </c>
       <c r="G55" s="47" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H55" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J55" s="48" t="s">
         <v>28</v>
@@ -10722,13 +10719,13 @@
         <v>392</v>
       </c>
       <c r="G56" s="47" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H56" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J56" s="48" t="s">
         <v>28</v>
@@ -10761,13 +10758,13 @@
         <v>392</v>
       </c>
       <c r="G57" s="47" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H57" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J57" s="48" t="s">
         <v>28</v>
@@ -10800,13 +10797,13 @@
         <v>392</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H58" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J58" s="48" t="s">
         <v>28</v>
@@ -10839,13 +10836,13 @@
         <v>392</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H59" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J59" s="48" t="s">
         <v>28</v>
@@ -10878,13 +10875,13 @@
         <v>392</v>
       </c>
       <c r="G60" s="47" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H60" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J60" s="48" t="s">
         <v>28</v>
@@ -10917,13 +10914,13 @@
         <v>392</v>
       </c>
       <c r="G61" s="47" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H61" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J61" s="48" t="s">
         <v>28</v>
@@ -10956,13 +10953,13 @@
         <v>392</v>
       </c>
       <c r="G62" s="47" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J62" s="48" t="s">
         <v>28</v>
@@ -10995,13 +10992,13 @@
         <v>415</v>
       </c>
       <c r="G63" s="47" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H63" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J63" s="48" t="s">
         <v>28</v>
@@ -11034,13 +11031,13 @@
         <v>415</v>
       </c>
       <c r="G64" s="47" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H64" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J64" s="48" t="s">
         <v>28</v>
@@ -11073,13 +11070,13 @@
         <v>415</v>
       </c>
       <c r="G65" s="47" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H65" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J65" s="48" t="s">
         <v>28</v>
@@ -11112,13 +11109,13 @@
         <v>415</v>
       </c>
       <c r="G66" s="47" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H66" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J66" s="48" t="s">
         <v>28</v>
@@ -11151,13 +11148,13 @@
         <v>415</v>
       </c>
       <c r="G67" s="47" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H67" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J67" s="48" t="s">
         <v>28</v>
@@ -11190,13 +11187,13 @@
         <v>415</v>
       </c>
       <c r="G68" s="47" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H68" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J68" s="48" t="s">
         <v>28</v>
@@ -11229,13 +11226,13 @@
         <v>415</v>
       </c>
       <c r="G69" s="47" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H69" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J69" s="48" t="s">
         <v>28</v>
@@ -11268,13 +11265,13 @@
         <v>415</v>
       </c>
       <c r="G70" s="47" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H70" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J70" s="48" t="s">
         <v>28</v>
@@ -11307,13 +11304,13 @@
         <v>415</v>
       </c>
       <c r="G71" s="47" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H71" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J71" s="48" t="s">
         <v>28</v>
@@ -11346,13 +11343,13 @@
         <v>415</v>
       </c>
       <c r="G72" s="47" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H72" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J72" s="48" t="s">
         <v>28</v>
@@ -11385,13 +11382,13 @@
         <v>415</v>
       </c>
       <c r="G73" s="47" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H73" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J73" s="48" t="s">
         <v>28</v>
@@ -11424,13 +11421,13 @@
         <v>376</v>
       </c>
       <c r="G74" s="47" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H74" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J74" s="48" t="s">
         <v>28</v>
@@ -11463,13 +11460,13 @@
         <v>376</v>
       </c>
       <c r="G75" s="47" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H75" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J75" s="48" t="s">
         <v>28</v>
@@ -11502,13 +11499,13 @@
         <v>376</v>
       </c>
       <c r="G76" s="47" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H76" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J76" s="48" t="s">
         <v>28</v>
@@ -11541,13 +11538,13 @@
         <v>376</v>
       </c>
       <c r="G77" s="47" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H77" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J77" s="48" t="s">
         <v>28</v>
@@ -11580,13 +11577,13 @@
         <v>376</v>
       </c>
       <c r="G78" s="47" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H78" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J78" s="48" t="s">
         <v>28</v>
@@ -11619,13 +11616,13 @@
         <v>376</v>
       </c>
       <c r="G79" s="47" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H79" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J79" s="48" t="s">
         <v>28</v>
@@ -11658,13 +11655,13 @@
         <v>376</v>
       </c>
       <c r="G80" s="47" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H80" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J80" s="48" t="s">
         <v>28</v>
@@ -11697,13 +11694,13 @@
         <v>376</v>
       </c>
       <c r="G81" s="47" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H81" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J81" s="48" t="s">
         <v>28</v>
@@ -11736,13 +11733,13 @@
         <v>376</v>
       </c>
       <c r="G82" s="47" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H82" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J82" s="48" t="s">
         <v>28</v>
@@ -11775,13 +11772,13 @@
         <v>376</v>
       </c>
       <c r="G83" s="47" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H83" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J83" s="48" t="s">
         <v>28</v>
@@ -11814,13 +11811,13 @@
         <v>376</v>
       </c>
       <c r="G84" s="47" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H84" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J84" s="48" t="s">
         <v>28</v>
@@ -11853,13 +11850,13 @@
         <v>376</v>
       </c>
       <c r="G85" s="47" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H85" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J85" s="48" t="s">
         <v>28</v>
@@ -11892,13 +11889,13 @@
         <v>376</v>
       </c>
       <c r="G86" s="47" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="H86" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J86" s="48" t="s">
         <v>28</v>
@@ -11931,13 +11928,13 @@
         <v>376</v>
       </c>
       <c r="G87" s="47" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H87" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J87" s="48" t="s">
         <v>28</v>
@@ -11970,13 +11967,13 @@
         <v>376</v>
       </c>
       <c r="G88" s="47" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H88" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J88" s="48" t="s">
         <v>28</v>
@@ -12009,13 +12006,13 @@
         <v>376</v>
       </c>
       <c r="G89" s="47" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H89" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J89" s="48" t="s">
         <v>28</v>
@@ -12048,13 +12045,13 @@
         <v>376</v>
       </c>
       <c r="G90" s="47" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H90" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J90" s="48" t="s">
         <v>28</v>
@@ -12087,13 +12084,13 @@
         <v>376</v>
       </c>
       <c r="G91" s="47" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H91" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J91" s="48" t="s">
         <v>28</v>
@@ -12126,13 +12123,13 @@
         <v>376</v>
       </c>
       <c r="G92" s="47" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H92" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J92" s="48" t="s">
         <v>28</v>
@@ -12165,13 +12162,13 @@
         <v>376</v>
       </c>
       <c r="G93" s="47" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H93" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J93" s="48" t="s">
         <v>28</v>
@@ -12204,13 +12201,13 @@
         <v>376</v>
       </c>
       <c r="G94" s="47" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H94" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J94" s="48" t="s">
         <v>28</v>
@@ -12243,13 +12240,13 @@
         <v>376</v>
       </c>
       <c r="G95" s="47" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H95" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I95" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J95" s="48" t="s">
         <v>28</v>
@@ -12282,13 +12279,13 @@
         <v>376</v>
       </c>
       <c r="G96" s="47" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="H96" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I96" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J96" s="48" t="s">
         <v>28</v>
@@ -12321,13 +12318,13 @@
         <v>376</v>
       </c>
       <c r="G97" s="47" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H97" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J97" s="48" t="s">
         <v>28</v>
@@ -12360,13 +12357,13 @@
         <v>376</v>
       </c>
       <c r="G98" s="47" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="H98" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J98" s="48" t="s">
         <v>28</v>
@@ -12399,13 +12396,13 @@
         <v>376</v>
       </c>
       <c r="G99" s="47" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H99" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I99" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J99" s="48" t="s">
         <v>28</v>
@@ -12438,13 +12435,13 @@
         <v>376</v>
       </c>
       <c r="G100" s="47" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H100" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J100" s="48" t="s">
         <v>28</v>
@@ -12477,13 +12474,13 @@
         <v>376</v>
       </c>
       <c r="G101" s="47" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H101" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J101" s="48" t="s">
         <v>28</v>
@@ -12516,13 +12513,13 @@
         <v>376</v>
       </c>
       <c r="G102" s="47" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="H102" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J102" s="48" t="s">
         <v>28</v>
@@ -12555,13 +12552,13 @@
         <v>392</v>
       </c>
       <c r="G103" s="47" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H103" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J103" s="48" t="s">
         <v>28</v>
@@ -12594,13 +12591,13 @@
         <v>392</v>
       </c>
       <c r="G104" s="47" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H104" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J104" s="48" t="s">
         <v>28</v>
@@ -12633,13 +12630,13 @@
         <v>392</v>
       </c>
       <c r="G105" s="47" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H105" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J105" s="48" t="s">
         <v>28</v>
@@ -12672,13 +12669,13 @@
         <v>392</v>
       </c>
       <c r="G106" s="47" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="H106" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J106" s="48" t="s">
         <v>28</v>
@@ -12711,13 +12708,13 @@
         <v>392</v>
       </c>
       <c r="G107" s="47" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H107" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J107" s="48" t="s">
         <v>28</v>
@@ -12750,13 +12747,13 @@
         <v>392</v>
       </c>
       <c r="G108" s="47" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H108" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J108" s="48" t="s">
         <v>28</v>
@@ -12789,13 +12786,13 @@
         <v>392</v>
       </c>
       <c r="G109" s="47" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H109" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J109" s="48" t="s">
         <v>28</v>
@@ -12828,13 +12825,13 @@
         <v>392</v>
       </c>
       <c r="G110" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H110" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J110" s="48" t="s">
         <v>28</v>
@@ -12867,13 +12864,13 @@
         <v>392</v>
       </c>
       <c r="G111" s="47" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H111" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J111" s="48" t="s">
         <v>28</v>
@@ -12906,13 +12903,13 @@
         <v>392</v>
       </c>
       <c r="G112" s="47" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H112" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J112" s="48" t="s">
         <v>28</v>
@@ -12945,13 +12942,13 @@
         <v>392</v>
       </c>
       <c r="G113" s="47" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H113" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J113" s="48" t="s">
         <v>28</v>
@@ -12984,13 +12981,13 @@
         <v>392</v>
       </c>
       <c r="G114" s="47" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="H114" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J114" s="48" t="s">
         <v>28</v>
@@ -13023,13 +13020,13 @@
         <v>392</v>
       </c>
       <c r="G115" s="47" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="H115" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J115" s="48" t="s">
         <v>28</v>
@@ -13062,13 +13059,13 @@
         <v>392</v>
       </c>
       <c r="G116" s="47" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H116" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J116" s="48" t="s">
         <v>28</v>
@@ -13101,13 +13098,13 @@
         <v>392</v>
       </c>
       <c r="G117" s="47" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H117" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J117" s="48" t="s">
         <v>28</v>
@@ -13140,13 +13137,13 @@
         <v>392</v>
       </c>
       <c r="G118" s="47" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="H118" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J118" s="48" t="s">
         <v>28</v>
@@ -13179,13 +13176,13 @@
         <v>392</v>
       </c>
       <c r="G119" s="47" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="H119" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I119" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J119" s="48" t="s">
         <v>28</v>
@@ -13218,13 +13215,13 @@
         <v>392</v>
       </c>
       <c r="G120" s="47" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="H120" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J120" s="48" t="s">
         <v>28</v>
@@ -13257,13 +13254,13 @@
         <v>392</v>
       </c>
       <c r="G121" s="47" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="H121" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J121" s="48" t="s">
         <v>28</v>
@@ -13296,13 +13293,13 @@
         <v>392</v>
       </c>
       <c r="G122" s="47" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H122" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J122" s="48" t="s">
         <v>28</v>
@@ -13335,13 +13332,13 @@
         <v>392</v>
       </c>
       <c r="G123" s="47" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="H123" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J123" s="48" t="s">
         <v>28</v>
@@ -13374,13 +13371,13 @@
         <v>392</v>
       </c>
       <c r="G124" s="47" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H124" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J124" s="48" t="s">
         <v>28</v>
@@ -13413,13 +13410,13 @@
         <v>376</v>
       </c>
       <c r="G125" s="47" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="H125" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J125" s="48" t="s">
         <v>28</v>
@@ -13452,13 +13449,13 @@
         <v>376</v>
       </c>
       <c r="G126" s="47" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H126" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J126" s="48" t="s">
         <v>28</v>
@@ -13491,13 +13488,13 @@
         <v>376</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="H127" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J127" s="48" t="s">
         <v>28</v>
@@ -13530,13 +13527,13 @@
         <v>376</v>
       </c>
       <c r="G128" s="47" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="H128" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J128" s="48" t="s">
         <v>28</v>
@@ -13569,13 +13566,13 @@
         <v>376</v>
       </c>
       <c r="G129" s="47" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H129" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I129" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J129" s="48" t="s">
         <v>28</v>
@@ -13608,13 +13605,13 @@
         <v>376</v>
       </c>
       <c r="G130" s="47" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H130" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J130" s="48" t="s">
         <v>28</v>
@@ -13647,13 +13644,13 @@
         <v>376</v>
       </c>
       <c r="G131" s="47" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="H131" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J131" s="48" t="s">
         <v>28</v>
@@ -13686,13 +13683,13 @@
         <v>376</v>
       </c>
       <c r="G132" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="H132" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J132" s="48" t="s">
         <v>28</v>
@@ -13725,13 +13722,13 @@
         <v>376</v>
       </c>
       <c r="G133" s="47" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H133" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J133" s="48" t="s">
         <v>28</v>
@@ -13764,13 +13761,13 @@
         <v>376</v>
       </c>
       <c r="G134" s="47" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H134" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J134" s="48" t="s">
         <v>28</v>
@@ -13803,13 +13800,13 @@
         <v>376</v>
       </c>
       <c r="G135" s="47" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H135" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J135" s="48" t="s">
         <v>28</v>
@@ -13842,13 +13839,13 @@
         <v>376</v>
       </c>
       <c r="G136" s="47" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H136" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J136" s="48" t="s">
         <v>28</v>
@@ -13881,13 +13878,13 @@
         <v>392</v>
       </c>
       <c r="G137" s="47" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H137" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J137" s="48" t="s">
         <v>28</v>
@@ -13920,13 +13917,13 @@
         <v>392</v>
       </c>
       <c r="G138" s="47" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="H138" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J138" s="48" t="s">
         <v>28</v>
@@ -13959,13 +13956,13 @@
         <v>392</v>
       </c>
       <c r="G139" s="47" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="H139" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J139" s="48" t="s">
         <v>28</v>
@@ -13998,13 +13995,13 @@
         <v>392</v>
       </c>
       <c r="G140" s="47" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H140" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J140" s="48" t="s">
         <v>28</v>
@@ -14037,13 +14034,13 @@
         <v>392</v>
       </c>
       <c r="G141" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="H141" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J141" s="48" t="s">
         <v>28</v>
@@ -14076,13 +14073,13 @@
         <v>392</v>
       </c>
       <c r="G142" s="47" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H142" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J142" s="48" t="s">
         <v>28</v>
@@ -14115,13 +14112,13 @@
         <v>392</v>
       </c>
       <c r="G143" s="47" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="H143" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I143" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J143" s="48" t="s">
         <v>28</v>
@@ -14154,13 +14151,13 @@
         <v>392</v>
       </c>
       <c r="G144" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H144" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I144" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J144" s="48" t="s">
         <v>28</v>
@@ -14171,9 +14168,7 @@
       <c r="L144" s="75">
         <v>141</v>
       </c>
-      <c r="M144" s="77" t="s">
-        <v>797</v>
-      </c>
+      <c r="M144" s="77"/>
     </row>
     <row r="145" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="46">
@@ -14195,13 +14190,13 @@
         <v>392</v>
       </c>
       <c r="G145" s="47" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="H145" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J145" s="48" t="s">
         <v>28</v>
@@ -14212,13 +14207,11 @@
       <c r="L145" s="75">
         <v>142</v>
       </c>
-      <c r="M145" s="77" t="s">
-        <v>797</v>
-      </c>
+      <c r="M145" s="77"/>
     </row>
     <row r="146" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="49" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B146" s="50" t="s">
         <v>364</v>
@@ -14267,13 +14260,13 @@
         <v>670</v>
       </c>
       <c r="G147" s="47" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H147" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I147" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J147" s="48" t="s">
         <v>28</v>
@@ -14284,9 +14277,7 @@
       <c r="L147" s="75">
         <v>143</v>
       </c>
-      <c r="M147" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M147" s="77"/>
     </row>
     <row r="148" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="46">
@@ -14308,13 +14299,13 @@
         <v>670</v>
       </c>
       <c r="G148" s="47" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="H148" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I148" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J148" s="48" t="s">
         <v>28</v>
@@ -14325,9 +14316,7 @@
       <c r="L148" s="75">
         <v>144</v>
       </c>
-      <c r="M148" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M148" s="77"/>
     </row>
     <row r="149" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="46">
@@ -14349,13 +14338,13 @@
         <v>670</v>
       </c>
       <c r="G149" s="47" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="H149" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I149" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J149" s="48" t="s">
         <v>28</v>
@@ -14366,9 +14355,7 @@
       <c r="L149" s="75">
         <v>145</v>
       </c>
-      <c r="M149" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M149" s="77"/>
     </row>
     <row r="150" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="46">
@@ -14390,13 +14377,13 @@
         <v>670</v>
       </c>
       <c r="G150" s="47" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H150" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J150" s="48" t="s">
         <v>28</v>
@@ -14407,9 +14394,7 @@
       <c r="L150" s="75">
         <v>146</v>
       </c>
-      <c r="M150" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M150" s="77"/>
     </row>
     <row r="151" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="46">
@@ -14431,13 +14416,13 @@
         <v>670</v>
       </c>
       <c r="G151" s="47" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H151" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J151" s="48" t="s">
         <v>28</v>
@@ -14448,9 +14433,7 @@
       <c r="L151" s="75">
         <v>147</v>
       </c>
-      <c r="M151" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M151" s="77"/>
     </row>
     <row r="152" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="46">
@@ -14472,13 +14455,13 @@
         <v>670</v>
       </c>
       <c r="G152" s="47" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H152" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I152" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J152" s="48" t="s">
         <v>28</v>
@@ -14489,9 +14472,7 @@
       <c r="L152" s="75">
         <v>148</v>
       </c>
-      <c r="M152" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M152" s="77"/>
     </row>
     <row r="153" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="46">
@@ -14513,13 +14494,13 @@
         <v>670</v>
       </c>
       <c r="G153" s="47" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="H153" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J153" s="48" t="s">
         <v>28</v>
@@ -14530,9 +14511,7 @@
       <c r="L153" s="75">
         <v>149</v>
       </c>
-      <c r="M153" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M153" s="77"/>
     </row>
     <row r="154" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="46">
@@ -14554,13 +14533,13 @@
         <v>670</v>
       </c>
       <c r="G154" s="47" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="H154" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J154" s="48" t="s">
         <v>28</v>
@@ -14571,9 +14550,7 @@
       <c r="L154" s="75">
         <v>150</v>
       </c>
-      <c r="M154" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M154" s="77"/>
     </row>
     <row r="155" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="46">
@@ -14595,13 +14572,13 @@
         <v>670</v>
       </c>
       <c r="G155" s="47" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="H155" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J155" s="48" t="s">
         <v>28</v>
@@ -14612,9 +14589,7 @@
       <c r="L155" s="75">
         <v>151</v>
       </c>
-      <c r="M155" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M155" s="77"/>
     </row>
     <row r="156" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="46">
@@ -14636,13 +14611,13 @@
         <v>670</v>
       </c>
       <c r="G156" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H156" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I156" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J156" s="48" t="s">
         <v>28</v>
@@ -14653,9 +14628,7 @@
       <c r="L156" s="75">
         <v>152</v>
       </c>
-      <c r="M156" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M156" s="77"/>
     </row>
     <row r="157" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="46">
@@ -14677,13 +14650,13 @@
         <v>670</v>
       </c>
       <c r="G157" s="47" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="H157" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I157" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J157" s="48" t="s">
         <v>28</v>
@@ -14694,9 +14667,7 @@
       <c r="L157" s="75">
         <v>153</v>
       </c>
-      <c r="M157" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M157" s="77"/>
     </row>
     <row r="158" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="46">
@@ -14718,13 +14689,13 @@
         <v>670</v>
       </c>
       <c r="G158" s="47" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H158" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I158" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J158" s="48" t="s">
         <v>28</v>
@@ -14757,13 +14728,13 @@
         <v>670</v>
       </c>
       <c r="G159" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H159" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I159" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J159" s="48" t="s">
         <v>28</v>
@@ -14774,13 +14745,11 @@
       <c r="L159" s="75">
         <v>155</v>
       </c>
-      <c r="M159" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M159" s="77"/>
     </row>
     <row r="160" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="49" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B160" s="50" t="s">
         <v>364</v>
@@ -14829,13 +14798,13 @@
         <v>670</v>
       </c>
       <c r="G161" s="47" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H161" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I161" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J161" s="48" t="s">
         <v>28</v>
@@ -14846,9 +14815,7 @@
       <c r="L161" s="75">
         <v>156</v>
       </c>
-      <c r="M161" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M161" s="77"/>
     </row>
     <row r="162" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="46">
@@ -14870,13 +14837,13 @@
         <v>670</v>
       </c>
       <c r="G162" s="47" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H162" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I162" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J162" s="48" t="s">
         <v>28</v>
@@ -14887,9 +14854,7 @@
       <c r="L162" s="75">
         <v>157</v>
       </c>
-      <c r="M162" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M162" s="77"/>
     </row>
     <row r="163" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="46">
@@ -14911,13 +14876,13 @@
         <v>670</v>
       </c>
       <c r="G163" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H163" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I163" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J163" s="48" t="s">
         <v>28</v>
@@ -14928,9 +14893,7 @@
       <c r="L163" s="75">
         <v>158</v>
       </c>
-      <c r="M163" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M163" s="77"/>
     </row>
     <row r="164" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="46">
@@ -14952,13 +14915,13 @@
         <v>670</v>
       </c>
       <c r="G164" s="47" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H164" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J164" s="48" t="s">
         <v>28</v>
@@ -14969,9 +14932,7 @@
       <c r="L164" s="75">
         <v>159</v>
       </c>
-      <c r="M164" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M164" s="77"/>
     </row>
     <row r="165" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="46">
@@ -14993,13 +14954,13 @@
         <v>670</v>
       </c>
       <c r="G165" s="47" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H165" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I165" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J165" s="48" t="s">
         <v>28</v>
@@ -15010,9 +14971,7 @@
       <c r="L165" s="75">
         <v>160</v>
       </c>
-      <c r="M165" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M165" s="77"/>
     </row>
     <row r="166" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="46">
@@ -15034,13 +14993,13 @@
         <v>670</v>
       </c>
       <c r="G166" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H166" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I166" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J166" s="48" t="s">
         <v>28</v>
@@ -15051,9 +15010,7 @@
       <c r="L166" s="75">
         <v>161</v>
       </c>
-      <c r="M166" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M166" s="77"/>
     </row>
     <row r="167" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="46">
@@ -15075,13 +15032,13 @@
         <v>670</v>
       </c>
       <c r="G167" s="47" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H167" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J167" s="48" t="s">
         <v>28</v>
@@ -15092,9 +15049,7 @@
       <c r="L167" s="75">
         <v>162</v>
       </c>
-      <c r="M167" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M167" s="77"/>
     </row>
     <row r="168" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="49" t="s">
@@ -15147,13 +15102,13 @@
         <v>392</v>
       </c>
       <c r="G169" s="47" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H169" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J169" s="48" t="s">
         <v>28</v>
@@ -15164,9 +15119,7 @@
       <c r="L169" s="75">
         <v>163</v>
       </c>
-      <c r="M169" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M169" s="77"/>
     </row>
     <row r="170" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="46">
@@ -15188,13 +15141,13 @@
         <v>670</v>
       </c>
       <c r="G170" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H170" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I170" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J170" s="48" t="s">
         <v>28</v>
@@ -15205,9 +15158,7 @@
       <c r="L170" s="75">
         <v>164</v>
       </c>
-      <c r="M170" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M170" s="77"/>
     </row>
     <row r="171" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="46">
@@ -15229,13 +15180,13 @@
         <v>670</v>
       </c>
       <c r="G171" s="47" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H171" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I171" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J171" s="48" t="s">
         <v>28</v>
@@ -15246,9 +15197,7 @@
       <c r="L171" s="75">
         <v>165</v>
       </c>
-      <c r="M171" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M171" s="77"/>
     </row>
     <row r="172" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="46">
@@ -15270,13 +15219,13 @@
         <v>670</v>
       </c>
       <c r="G172" s="47" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="H172" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I172" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J172" s="48" t="s">
         <v>28</v>
@@ -15287,9 +15236,7 @@
       <c r="L172" s="75">
         <v>166</v>
       </c>
-      <c r="M172" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M172" s="77"/>
     </row>
     <row r="173" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="46">
@@ -15311,13 +15258,13 @@
         <v>670</v>
       </c>
       <c r="G173" s="47" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H173" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I173" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J173" s="48" t="s">
         <v>28</v>
@@ -15328,9 +15275,7 @@
       <c r="L173" s="75">
         <v>167</v>
       </c>
-      <c r="M173" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M173" s="77"/>
     </row>
     <row r="174" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="46">
@@ -15352,13 +15297,13 @@
         <v>670</v>
       </c>
       <c r="G174" s="47" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="H174" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I174" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J174" s="48" t="s">
         <v>28</v>
@@ -15369,9 +15314,7 @@
       <c r="L174" s="75">
         <v>168</v>
       </c>
-      <c r="M174" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M174" s="77"/>
     </row>
     <row r="175" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="46">
@@ -15393,13 +15336,13 @@
         <v>670</v>
       </c>
       <c r="G175" s="47" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H175" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I175" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J175" s="48" t="s">
         <v>28</v>
@@ -15410,9 +15353,7 @@
       <c r="L175" s="75">
         <v>169</v>
       </c>
-      <c r="M175" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M175" s="77"/>
     </row>
     <row r="176" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="46">
@@ -15434,13 +15375,13 @@
         <v>670</v>
       </c>
       <c r="G176" s="47" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="H176" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I176" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J176" s="48" t="s">
         <v>28</v>
@@ -15451,9 +15392,7 @@
       <c r="L176" s="75">
         <v>170</v>
       </c>
-      <c r="M176" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M176" s="77"/>
     </row>
     <row r="177" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="46">
@@ -15475,13 +15414,13 @@
         <v>670</v>
       </c>
       <c r="G177" s="47" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H177" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I177" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J177" s="48" t="s">
         <v>28</v>
@@ -15492,9 +15431,7 @@
       <c r="L177" s="75">
         <v>171</v>
       </c>
-      <c r="M177" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M177" s="77"/>
     </row>
     <row r="178" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="46">
@@ -15516,13 +15453,13 @@
         <v>376</v>
       </c>
       <c r="G178" s="47" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="H178" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I178" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J178" s="48" t="s">
         <v>28</v>
@@ -15533,9 +15470,7 @@
       <c r="L178" s="75">
         <v>172</v>
       </c>
-      <c r="M178" s="77" t="s">
-        <v>798</v>
-      </c>
+      <c r="M178" s="77"/>
     </row>
     <row r="179" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="49" t="s">
@@ -15588,13 +15523,13 @@
         <v>392</v>
       </c>
       <c r="G180" s="47" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H180" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I180" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J180" s="48" t="s">
         <v>28</v>
@@ -15627,13 +15562,13 @@
         <v>392</v>
       </c>
       <c r="G181" s="47" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="H181" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I181" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J181" s="48" t="s">
         <v>28</v>
@@ -15666,13 +15601,13 @@
         <v>392</v>
       </c>
       <c r="G182" s="47" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="H182" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I182" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J182" s="48" t="s">
         <v>28</v>
@@ -15705,13 +15640,13 @@
         <v>392</v>
       </c>
       <c r="G183" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H183" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I183" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J183" s="48" t="s">
         <v>28</v>
@@ -15744,13 +15679,13 @@
         <v>392</v>
       </c>
       <c r="G184" s="47" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="H184" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I184" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J184" s="48" t="s">
         <v>28</v>
@@ -15783,13 +15718,13 @@
         <v>392</v>
       </c>
       <c r="G185" s="47" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H185" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J185" s="48" t="s">
         <v>28</v>
@@ -15822,13 +15757,13 @@
         <v>392</v>
       </c>
       <c r="G186" s="47" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H186" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I186" s="38" t="s">
-        <v>15</v>
+        <v>1083</v>
       </c>
       <c r="J186" s="48" t="s">
         <v>28</v>
@@ -15961,21 +15896,21 @@
         <v>253</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>883</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>245</v>
@@ -15996,7 +15931,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>245</v>
@@ -16017,23 +15952,23 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="76" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
   </sheetData>
@@ -16077,7 +16012,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>245</v>
@@ -16094,7 +16029,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>245</v>
@@ -16150,7 +16085,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>245</v>
@@ -16167,7 +16102,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>245</v>
@@ -16184,13 +16119,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>245</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -16242,16 +16177,16 @@
         <v>253</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>880</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>883</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -16292,16 +16227,16 @@
         <v>254</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>888</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -16417,7 +16352,7 @@
         <v>361</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>28</v>
@@ -16572,7 +16507,7 @@
         <v>361</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>28</v>
@@ -16845,7 +16780,7 @@
         <v>245</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>32</v>
@@ -16860,7 +16795,7 @@
         <v>361</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>781</v>
@@ -16883,7 +16818,7 @@
         <v>245</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>32</v>
@@ -16998,7 +16933,7 @@
         <v>245</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>32</v>
@@ -17013,7 +16948,7 @@
         <v>696</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>781</v>
@@ -22499,7 +22434,7 @@
         <v>343</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>115</v>
@@ -22537,7 +22472,7 @@
         <v>343</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>115</v>
@@ -22599,7 +22534,7 @@
         <v>343</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>115</v>
@@ -22637,7 +22572,7 @@
         <v>343</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>115</v>
